--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d504815-Reviews-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>320</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Hollywood.h1144019.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1917 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r575526660-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>504815</t>
+  </si>
+  <si>
+    <t>575526660</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Awful hotel, rude personnel</t>
+  </si>
+  <si>
+    <t>The receptionist was very rude, did not even say hi, he also asked to pay for parking $10 no mater than it says free parking in the listing. The room smelled like $hit and there was a noise coming from the faucet. I went to the receptionist and the only option he gave me is to move out. Awful hotel!!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r574470947-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574470947</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Bad!</t>
+  </si>
+  <si>
+    <t>We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too...We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too much. Upon returning from our day our door was wide open ( with all of our personal belongings) still inside to a new t.v which was not even set up on the bracket and all of our stuff had been moved! After settling down and our room had just been finished being cleaned i went looking for my lighter. It was not where i left it. I tore the room apart and it still was not there. I took myself to the front desk and i asked if our room door has been open long, he openly admitted to it being open for a while i asked him "why is that needed we trust them with our personal belongings"! He had no answer at all and i said my lighter had been stolen ! (Well the only thing i have noticed thus far) he continued to argue with me saying he "was the best at his job" he gave me matches!!! I said this is horrible to employ staff that steal peoples personal belongings from their own rooms! I stormed off after i said i will be making a review to which he got his back up and said "fine go ahead" which he was hard to understand anyway and threw his hands in the air. A couple of minutes later he approaches me and says "is this your lighter"? I said "ummmmm yes where was it?" He would not answer and said nothing then walked away. Im glad to know it grew legs and walked away  the inconsistency in the housekeeping is bad, they talk to loud at 8 in the morning . The staff are nasty! Never again !!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too...We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too much. Upon returning from our day our door was wide open ( with all of our personal belongings) still inside to a new t.v which was not even set up on the bracket and all of our stuff had been moved! After settling down and our room had just been finished being cleaned i went looking for my lighter. It was not where i left it. I tore the room apart and it still was not there. I took myself to the front desk and i asked if our room door has been open long, he openly admitted to it being open for a while i asked him "why is that needed we trust them with our personal belongings"! He had no answer at all and i said my lighter had been stolen ! (Well the only thing i have noticed thus far) he continued to argue with me saying he "was the best at his job" he gave me matches!!! I said this is horrible to employ staff that steal peoples personal belongings from their own rooms! I stormed off after i said i will be making a review to which he got his back up and said "fine go ahead" which he was hard to understand anyway and threw his hands in the air. A couple of minutes later he approaches me and says "is this your lighter"? I said "ummmmm yes where was it?" He would not answer and said nothing then walked away. Im glad to know it grew legs and walked away  the inconsistency in the housekeeping is bad, they talk to loud at 8 in the morning . The staff are nasty! Never again !!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r567710710-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>567710710</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>DON NOT SAY HERE! Filthy, sketchy, rude, moldy tub, hair everywhere!</t>
+  </si>
+  <si>
+    <t>Disgustingly  Dirty place an extremely rude. We hooked on hotels.com and he refused to check me in once I noticed how dirty the rooms were when doing a walk through.  The caulked edges of the bath tub were totally moldy, there were hairs on the sheets And the toilets, and when we asked to change rooms They cancel my reservation and asked us to leave because they said that they didn't want "complainers".... he literally yelled at me to leave their property and was so angry and aggressive I could tell he was guilty I was very polite and communicated with a peaceful tone. I simply asked for another room and he refused to check me in. This was for a business trip so when he canceled my reservation he canceled all my colleagues rooms as well which caused a major problem with our work trip travels. I have traveled to over 35 countries... never in my life been so sketched out by a motel  or threatened by a manager/owner. He was a shorter, mid aged Indian man who became upset when I pointed out the molding caulk and hair on sheets and toilet which shows me hes nervous about the health board.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Disgustingly  Dirty place an extremely rude. We hooked on hotels.com and he refused to check me in once I noticed how dirty the rooms were when doing a walk through.  The caulked edges of the bath tub were totally moldy, there were hairs on the sheets And the toilets, and when we asked to change rooms They cancel my reservation and asked us to leave because they said that they didn't want "complainers".... he literally yelled at me to leave their property and was so angry and aggressive I could tell he was guilty I was very polite and communicated with a peaceful tone. I simply asked for another room and he refused to check me in. This was for a business trip so when he canceled my reservation he canceled all my colleagues rooms as well which caused a major problem with our work trip travels. I have traveled to over 35 countries... never in my life been so sketched out by a motel  or threatened by a manager/owner. He was a shorter, mid aged Indian man who became upset when I pointed out the molding caulk and hair on sheets and toilet which shows me hes nervous about the health board.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r534464159-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534464159</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Very convenient location</t>
+  </si>
+  <si>
+    <t>This was our second stay here, both for 3 days.  The hotel is basic but you get what you pay for.  Location great easy walk to Hollywood Blvd and bus to downtown 1 min walk.  Breakfast is basic but it sufficed.  Hotel staff very accommodating, letting us check in early.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r524774249-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524774249</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I booked this place because it was close to Hollywood Blvd.  The price wasn't bad for the location.  The room was small but room enough for all our bags.  There was a fridge and microwave, coffee maker, and ironing board.  The continental breakfast was apples, bananas, and donuts.  Not great, but better than nothing.  The room was clean, and the air conditioning worked well.  The water pressure in the shower was the best I've ever encountered.  There's a tiny little swimming pool.  I never saw anyone in it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r523945620-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523945620</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Staff were friendly - although unfortunately one new member of staff made a mistake when debiting my card and left me without any dollars for a day!Room was fairly big and had a massive bed, it was relatively clean and the air-con and fan systems were decent. Bathroom was okay although the door did not shut properly. Nice big fridge which was an added bonus!Room was quite dark but when you're in Hollywood I guess you won't be spending much time in your room anyway. Offered a few breakfast items which was also a nice touch. If you want luxury then don't stay here but all in all an pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff were friendly - although unfortunately one new member of staff made a mistake when debiting my card and left me without any dollars for a day!Room was fairly big and had a massive bed, it was relatively clean and the air-con and fan systems were decent. Bathroom was okay although the door did not shut properly. Nice big fridge which was an added bonus!Room was quite dark but when you're in Hollywood I guess you won't be spending much time in your room anyway. Offered a few breakfast items which was also a nice touch. If you want luxury then don't stay here but all in all an pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r491626251-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>491626251</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Terrific Location!</t>
+  </si>
+  <si>
+    <t>I've come to this hotel now for 7 years in a row. Every Spring, my brother &amp; I (and sometimes my sister from Alaska) go to the TCM Festival. This hotel's location is PERFECT!  It's basically 3 blocks from Grauman's Chinese Theater and all the other attractions along Hollywood Blvd.The rooms here are spacious and clean. They've done a recent remodel and it looks great! The beds are comfy and the room includes mini-fridge, microwave, iron/board, and quality soaps and shampoos. The staff is friendly and the housekeeping does a great job and is honest. I like the continental breakfast they offer - it's just enough to get my day started. There is also parking (now they charge for it.... bummer) and my belongings here are always safe.I can recommend this hotel without hesitation. I've included pictures of my room from April 2017.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I've come to this hotel now for 7 years in a row. Every Spring, my brother &amp; I (and sometimes my sister from Alaska) go to the TCM Festival. This hotel's location is PERFECT!  It's basically 3 blocks from Grauman's Chinese Theater and all the other attractions along Hollywood Blvd.The rooms here are spacious and clean. They've done a recent remodel and it looks great! The beds are comfy and the room includes mini-fridge, microwave, iron/board, and quality soaps and shampoos. The staff is friendly and the housekeeping does a great job and is honest. I like the continental breakfast they offer - it's just enough to get my day started. There is also parking (now they charge for it.... bummer) and my belongings here are always safe.I can recommend this hotel without hesitation. I've included pictures of my room from April 2017.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r488235250-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>488235250</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep on riding - don't stop! </t>
+  </si>
+  <si>
+    <t>Don't bother! We chose this hotel as it was recommended by Qantas!  It was awful. The rooms were NOT renovated recently as the website and billboard advises - maybe in the 90's! The bathroom was dirty, cracks in the wall tiles. The bed squeaked. The breakfast was a joke! A donut and piece of fruit (if you're there before 8.30am! After 8.30 all there was to offer was a dry chocolate donut (ore bagged)and no coffee!All night the noise of police, fire engines and paramedic services screamed past. Choice Hotels should take this "Inn" off your list of preferred suppliers.  We have stayed with this group during our USA holiday and this place is not up to standard. This was not priced as a budget priced hotel as it should be. The bank style "holdup" glass cubicle at check in reception tells you something about the locality! Location was one street off the Boulevard. Whilst close to the walk of fame, there was a drug needle station two doors along and homeless people everywhere. If we hadn't prepaid this accommodation we would have walked out!! When the Uber drivers double check your destination address and look twice at you in the mirror - we are learning we are in for a rough hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Don't bother! We chose this hotel as it was recommended by Qantas!  It was awful. The rooms were NOT renovated recently as the website and billboard advises - maybe in the 90's! The bathroom was dirty, cracks in the wall tiles. The bed squeaked. The breakfast was a joke! A donut and piece of fruit (if you're there before 8.30am! After 8.30 all there was to offer was a dry chocolate donut (ore bagged)and no coffee!All night the noise of police, fire engines and paramedic services screamed past. Choice Hotels should take this "Inn" off your list of preferred suppliers.  We have stayed with this group during our USA holiday and this place is not up to standard. This was not priced as a budget priced hotel as it should be. The bank style "holdup" glass cubicle at check in reception tells you something about the locality! Location was one street off the Boulevard. Whilst close to the walk of fame, there was a drug needle station two doors along and homeless people everywhere. If we hadn't prepaid this accommodation we would have walked out!! When the Uber drivers double check your destination address and look twice at you in the mirror - we are learning we are in for a rough hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r478414698-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>478414698</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Good location and affordable</t>
+  </si>
+  <si>
+    <t>We needed an affordable place to stay near Hollywood Boulevard for a family of 4. The room was large and clearly newly renovated. The bathroom was well equipped and functional. Loved the large terrace in front of the room. The pool area looked tired and not clean - so we did not use it. Lobby area not nice and not welcoming. Breakfast nothing special. Nevertheless, this hotel worked well for us when staying for one night and not wanting to spend lots of money. We checked in late and simply needed a large and clean room for a good nights' sleep. Some fast food and inexpensive diners in walking distance. Free parking at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We needed an affordable place to stay near Hollywood Boulevard for a family of 4. The room was large and clearly newly renovated. The bathroom was well equipped and functional. Loved the large terrace in front of the room. The pool area looked tired and not clean - so we did not use it. Lobby area not nice and not welcoming. Breakfast nothing special. Nevertheless, this hotel worked well for us when staying for one night and not wanting to spend lots of money. We checked in late and simply needed a large and clean room for a good nights' sleep. Some fast food and inexpensive diners in walking distance. Free parking at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r465620737-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>465620737</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Dirty///$5Room Key///$10Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was dirty and out dated. Parking was limited to about ten spaces and was NOT FREE. We had to pay $10 cash which probably went into the his pocket and he would not make eye contact with me the whole time, Sketchy! Also a $5 Room key charge that wasn't returned. Bring your sandals to walk or shower in! </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r456584195-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456584195</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Hit the Rode</t>
+  </si>
+  <si>
+    <t>There really isn't much I can say except: The rooms were dirty and out dated. The staff ignored our 'do not disturb' signs and were extremely rude and abusive if challenged in the slightest way. I definitely would not stay here again under any circumstance.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r455071833-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>455071833</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Awesome for the price</t>
+  </si>
+  <si>
+    <t>We booked the awful place next door and they kindly fitted us in here. It was clean, they were friendly and it was such a nice stay. For people that are used to staying in horrible places on a budget, this place is amazing for the price! Definitely recommend staying here!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r440725974-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>440725974</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>Shower had a block on it so you could only take a lukewarm shower. No weather striping which caused the room to be cold and noisy.Plus, management failed to inform us that Santa Monica Blvd would be closed from 2 to 11pm making it impossible to reach our hotel. We saw no signs posted beforehand and were unable to reach our room or even park in the vicinity due to a parade. I accidentally chose this hotel on Tripadvisor while meaning to chose the one on Vine St. That is where we'll be going next time. The manager was hostile when I asked for a refund. Terrible customer service skills.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Shower had a block on it so you could only take a lukewarm shower. No weather striping which caused the room to be cold and noisy.Plus, management failed to inform us that Santa Monica Blvd would be closed from 2 to 11pm making it impossible to reach our hotel. We saw no signs posted beforehand and were unable to reach our room or even park in the vicinity due to a parade. I accidentally chose this hotel on Tripadvisor while meaning to chose the one on Vine St. That is where we'll be going next time. The manager was hostile when I asked for a refund. Terrible customer service skills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r436018414-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436018414</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Decent motel</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by the rooms, very clean with heaps of space. However the breakfast is seriously unhealthy, surgery donuts, cereal and some fruit. Beware if you arrive off a flight before check in they won't take your bags, we had to sit in an IHOP for a few hours with all our baggage after a flight from Australia. Overall though it's good value and a five minute walk from Hollywood. Like anywhere in the area the streets can be sketchy so be careful walking at nighttime.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r425929080-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>425929080</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Second time was better than the first!</t>
+  </si>
+  <si>
+    <t>I was there with my wife in 2012 and it was really good! I have now just come back with another couple in the middle of the night to be welcomed because they remembered us! (2016)  I don't know how they did it but, they put us up in style as per usual because they remembered us! 1st class treatment by some of the loveliest people we have encountered on our journey. We'll be back!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r396441605-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>396441605</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Only 2 blocks from the main strip of Hollywood Blvd so you can walk and not deal with the craaaazy traffic.  Rooms were clean and staff was friendly.  Microwave and mini fridge in every room.  Pool is small but clean.  The only downside is the "continental" breakfast.  Mini boxes of cereal, donuts, croissants, &amp; fresh fruit.  But the milk and OJ was sitting out on the counter instead of being kept in a fridge.  There is no where to eat so you juggle stuff as you walk back to your room to eat.  On the plus side, the donuts and croissants were fresh every day, even still warm.  Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Only 2 blocks from the main strip of Hollywood Blvd so you can walk and not deal with the craaaazy traffic.  Rooms were clean and staff was friendly.  Microwave and mini fridge in every room.  Pool is small but clean.  The only downside is the "continental" breakfast.  Mini boxes of cereal, donuts, croissants, &amp; fresh fruit.  But the milk and OJ was sitting out on the counter instead of being kept in a fridge.  There is no where to eat so you juggle stuff as you walk back to your room to eat.  On the plus side, the donuts and croissants were fresh every day, even still warm.  Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r392225153-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>392225153</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible Place</t>
+  </si>
+  <si>
+    <t>Very disappointed. Bathroom dirty, pillows less than 2 inches thick. dark rooms, $10 per night to park. Breakfast laughable and served in the 5'x5' lobby. Worst was the bum knocking on doors at 3 am, Police had to be called, no way to get ahold of front desk.Don't stay Here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r390383571-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>390383571</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Part of our trip</t>
+  </si>
+  <si>
+    <t>Stayed here as part of our trip, initially we were only going to stay for two days but decided that we had not seen enough of Hollywood so booked another night. Staff made booking very straightforward and we were in our room within 30 mins. You have to pay for car parking here though. Breakfast consisted of Croissants and other pastries plus coffee or tea. Not far from the strip which was ideal. There were some homeless people around but you get that everywhere and they did not bother us or made us feel threatened in anyway as they did not come onto the motel grounds.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r370312567-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>370312567</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r368259186-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>368259186</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>This place was perfect for what we needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a nice time here. It is not a very fancy place by any means, but it was fairly clean and the Staff were all Extremely friendly. We did not spend very much time in the room, so it suited our needs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r367718268-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>367718268</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Perfect location !</t>
+  </si>
+  <si>
+    <t>Positive points- perfect location, central, close to transportation services- Free parking lot- Comfortable room, very well equipedLess positive points- Staff is a bit messy when it comes to managing bookings- The swimming pool was not clean enough to enjoy it- Air conditioning system is very loud- No breakfast room, you have to take your food at the reception. Take a bag or something else to carry your food back to your room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r355588465-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>355588465</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Even for a moderate/budget chain, I've been in better</t>
+  </si>
+  <si>
+    <t>I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the...I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the bathroom there were enough clean towels and two bars of soap and two containers of shampoo. In the shower/tub I had to lower down a bit as I am 6'1" and would have hit my head on the curtain bar. There is an ice machine which charges you for ice as well as a water vending machine. The pool which I didn't use since I wan't there long enough and it was a cool day was about 8 inches than it's marked level and looked a bit green and dirty as well as leaves and debris. A few dirty and weathered plastic chairs and a table alongside. Inside the room it was quite noisy from noises coming in from the parking lot outside my door, from the vacant junk lot my window looked out onto, or from whoever was above me. I would not stay here again unless I had to. I would pay a bit more to be elsewhere even for just one night. My room by the way was $113. I have stayed at a Rodeway twice before and they were much better than this one.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the...I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the bathroom there were enough clean towels and two bars of soap and two containers of shampoo. In the shower/tub I had to lower down a bit as I am 6'1" and would have hit my head on the curtain bar. There is an ice machine which charges you for ice as well as a water vending machine. The pool which I didn't use since I wan't there long enough and it was a cool day was about 8 inches than it's marked level and looked a bit green and dirty as well as leaves and debris. A few dirty and weathered plastic chairs and a table alongside. Inside the room it was quite noisy from noises coming in from the parking lot outside my door, from the vacant junk lot my window looked out onto, or from whoever was above me. I would not stay here again unless I had to. I would pay a bit more to be elsewhere even for just one night. My room by the way was $113. I have stayed at a Rodeway twice before and they were much better than this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r345730610-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>345730610</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Too pricy for a room</t>
+  </si>
+  <si>
+    <t>The rooms look nicer in the pictures. The carpet is old and I had to wear shoes in the room because it didn't look clean. When I was in the shower, I think I saw a cockroach. The Wifi wasn't working. And there isn't much space to park.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r344618543-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>344618543</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Really not as nice as the price to stay.</t>
+  </si>
+  <si>
+    <t>There was a shortage of towels and. The few they had were hard. I really thought showers were nice and modern were the best part of the stay. Only once the showers were off theres no towel to dry with kinda kills it. I always say a place if they have a bunch of towels for guests to not have to call for some or walk in middle of night to ask the front.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r341805873-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>341805873</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Lacks Customer Service</t>
+  </si>
+  <si>
+    <t>Stayed here for one night with a group of friends. There was 6 of us and we booked a room with 3 full beds. Upon check-in the gentleman at the front desk was not very welcoming or friendly. Right off the bat, he was aggressive in making sure I knew the maximum occupancy of the room was 6. Instead of focusing on the check in process, he was closely watching my friends unload the van. He then told me 3 times about the room was non-smoking and that if he catches us that he will charge us $250. By the way, we don't smoke. After checking us on, he realized there was 7 of us but I quickly stated that he was just helping us and would not be spending the night. His attitude and customer service was off putting making me second guess my stay. Not to mention, there were other guests in the lobby listening to this guy tell me for a second time what the maximum occupancy was. I understand they come across a lot of guests who have probably done lots of wrong but that doesn't give him the right to judge us from the moment we walk in. He mentioned the continental breakfast from 730-9am and he did move a cone where we could specifically park our van. 
+The room was great! It was clean with some spots on the walls but that didn't bother...Stayed here for one night with a group of friends. There was 6 of us and we booked a room with 3 full beds. Upon check-in the gentleman at the front desk was not very welcoming or friendly. Right off the bat, he was aggressive in making sure I knew the maximum occupancy of the room was 6. Instead of focusing on the check in process, he was closely watching my friends unload the van. He then told me 3 times about the room was non-smoking and that if he catches us that he will charge us $250. By the way, we don't smoke. After checking us on, he realized there was 7 of us but I quickly stated that he was just helping us and would not be spending the night. His attitude and customer service was off putting making me second guess my stay. Not to mention, there were other guests in the lobby listening to this guy tell me for a second time what the maximum occupancy was. I understand they come across a lot of guests who have probably done lots of wrong but that doesn't give him the right to judge us from the moment we walk in. He mentioned the continental breakfast from 730-9am and he did move a cone where we could specifically park our van. The room was great! It was clean with some spots on the walls but that didn't bother us much. It came with a mini fridge, iron with a board, tv and lots of shelf space for clothes. The bathroom had a foul smell but we had no way of opening the window because of how high they put it. The wifi was good but I did call the front desk to get an access code to where the gentlemen told me that he had already given me the code but he'll tell me again (as if it's such an inconvenience to him). We had nice night of sleep and there was parking when we came back from our LA adventure (considering it was a Tuesday, I'm sure it wasn't too busy) It was a little noisy in the morning with the street traffic from Sunset Blvd but we didn't mind. Check out was a breeze but again the gentlemen didn't ask us how our stay was....he just handed us a receipt. He did call me sir and asked how I was doing but at that point he already set in stone his first impression and attitude. I give this hotel 2 stars for the room and parking. There was also a pool but it was too cold for a swim. Don't come here for the customer service. Finally, the price was reasonable at $216 for the night. Nonetheless, We enjoyed our trip and the location was central so lots were close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night with a group of friends. There was 6 of us and we booked a room with 3 full beds. Upon check-in the gentleman at the front desk was not very welcoming or friendly. Right off the bat, he was aggressive in making sure I knew the maximum occupancy of the room was 6. Instead of focusing on the check in process, he was closely watching my friends unload the van. He then told me 3 times about the room was non-smoking and that if he catches us that he will charge us $250. By the way, we don't smoke. After checking us on, he realized there was 7 of us but I quickly stated that he was just helping us and would not be spending the night. His attitude and customer service was off putting making me second guess my stay. Not to mention, there were other guests in the lobby listening to this guy tell me for a second time what the maximum occupancy was. I understand they come across a lot of guests who have probably done lots of wrong but that doesn't give him the right to judge us from the moment we walk in. He mentioned the continental breakfast from 730-9am and he did move a cone where we could specifically park our van. 
+The room was great! It was clean with some spots on the walls but that didn't bother...Stayed here for one night with a group of friends. There was 6 of us and we booked a room with 3 full beds. Upon check-in the gentleman at the front desk was not very welcoming or friendly. Right off the bat, he was aggressive in making sure I knew the maximum occupancy of the room was 6. Instead of focusing on the check in process, he was closely watching my friends unload the van. He then told me 3 times about the room was non-smoking and that if he catches us that he will charge us $250. By the way, we don't smoke. After checking us on, he realized there was 7 of us but I quickly stated that he was just helping us and would not be spending the night. His attitude and customer service was off putting making me second guess my stay. Not to mention, there were other guests in the lobby listening to this guy tell me for a second time what the maximum occupancy was. I understand they come across a lot of guests who have probably done lots of wrong but that doesn't give him the right to judge us from the moment we walk in. He mentioned the continental breakfast from 730-9am and he did move a cone where we could specifically park our van. The room was great! It was clean with some spots on the walls but that didn't bother us much. It came with a mini fridge, iron with a board, tv and lots of shelf space for clothes. The bathroom had a foul smell but we had no way of opening the window because of how high they put it. The wifi was good but I did call the front desk to get an access code to where the gentlemen told me that he had already given me the code but he'll tell me again (as if it's such an inconvenience to him). We had nice night of sleep and there was parking when we came back from our LA adventure (considering it was a Tuesday, I'm sure it wasn't too busy) It was a little noisy in the morning with the street traffic from Sunset Blvd but we didn't mind. Check out was a breeze but again the gentlemen didn't ask us how our stay was....he just handed us a receipt. He did call me sir and asked how I was doing but at that point he already set in stone his first impression and attitude. I give this hotel 2 stars for the room and parking. There was also a pool but it was too cold for a swim. Don't come here for the customer service. Finally, the price was reasonable at $216 for the night. Nonetheless, We enjoyed our trip and the location was central so lots were close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r340598904-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>340598904</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is situated very close to the walk of fame and other famous areas in town. They have parking lot but when it's full you need to park at another hotel, just next to it but this kind sucked for us cause it was too cold to walk outside. We found a hair in our pillow cases on our first night and that made us feel a little unconfortable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r333290684-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>333290684</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Fantastic location and a fantastic price</t>
+  </si>
+  <si>
+    <t>Stayed here for a week. We booked this firstly for the location and secondly it was cheap. Having heard a lot about the homeless and less desirables that wander about and the whole "hollyweird" status before we went; I was extremely apprehensive about staying in Hollywood and booked this as with a high school right opposite felt it would be a safer option then some of the others available. I am so pleased we did book this, the location is fantastic literally about 5-10 mins walk and you are at the Chinese Theatre, the walk of fame and the Dolby Theatre. There is an in and out burger just across the road, an Ihop bout 5/10 mins walk and a coffee shop a few doors down.
+The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the...Stayed here for a week. We booked this firstly for the location and secondly it was cheap. Having heard a lot about the homeless and less desirables that wander about and the whole "hollyweird" status before we went; I was extremely apprehensive about staying in Hollywood and booked this as with a high school right opposite felt it would be a safer option then some of the others available. I am so pleased we did book this, the location is fantastic literally about 5-10 mins walk and you are at the Chinese Theatre, the walk of fame and the Dolby Theatre. There is an in and out burger just across the road, an Ihop bout 5/10 mins walk and a coffee shop a few doors down.The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the bed, the pillows could have been a bit better but all in all perfect for what we wanted. One important point regarding the rooms - we had an end room - this was actually a very loud room from outside noises. We were under the stairs so we heard all of the foot traffic above us, people going up and down the stairs and their conversations - not the hotel's fault more just the structure and the lack of courtesy of the other guests not realizing some people may still be asleep and not everyone is up at the crack of dawn - ask for a room in the middle if you can and avoid this. We had no problem parking right outside our room, there is additional parking available at the hotel next door which is good as there are not many spaces; I could see there being a fight for parking otherwise if the hotel was busy. However, we did not have a problem, don't know if that is because we went in late September but there was always one space left for us. We would mostly be out in the morning and coming back at night though so don't know how it would have been if we had wanted to go back during the day with the car.The internet is free and really good quality; you get a code from reception (they do change it so may have to go and ask more than once).  The "breakfast" they offer is literally just little boxes of cereal, coffee, tea and juice. Breakfast was a bit poor to be honest.The pool is tiny- it is not really a pool but an oversized bath tub lol. We did attempt to go in it but the water was too cold and to be honest actually really dirty (that could have just been when we were there). This and the breakfast would be my only downsides but we were so busy seeing LA it didn't really affect us. I read some people saw loads of cockroaches etc before we went but we didn't see anything like this. I also did not experience any rude staff and the people at reception were always talkative and polite when we went to see them.I would recommend this hotel for the unfussy who just want a cheap, centralized base for Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a week. We booked this firstly for the location and secondly it was cheap. Having heard a lot about the homeless and less desirables that wander about and the whole "hollyweird" status before we went; I was extremely apprehensive about staying in Hollywood and booked this as with a high school right opposite felt it would be a safer option then some of the others available. I am so pleased we did book this, the location is fantastic literally about 5-10 mins walk and you are at the Chinese Theatre, the walk of fame and the Dolby Theatre. There is an in and out burger just across the road, an Ihop bout 5/10 mins walk and a coffee shop a few doors down.
+The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the...Stayed here for a week. We booked this firstly for the location and secondly it was cheap. Having heard a lot about the homeless and less desirables that wander about and the whole "hollyweird" status before we went; I was extremely apprehensive about staying in Hollywood and booked this as with a high school right opposite felt it would be a safer option then some of the others available. I am so pleased we did book this, the location is fantastic literally about 5-10 mins walk and you are at the Chinese Theatre, the walk of fame and the Dolby Theatre. There is an in and out burger just across the road, an Ihop bout 5/10 mins walk and a coffee shop a few doors down.The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the bed, the pillows could have been a bit better but all in all perfect for what we wanted. One important point regarding the rooms - we had an end room - this was actually a very loud room from outside noises. We were under the stairs so we heard all of the foot traffic above us, people going up and down the stairs and their conversations - not the hotel's fault more just the structure and the lack of courtesy of the other guests not realizing some people may still be asleep and not everyone is up at the crack of dawn - ask for a room in the middle if you can and avoid this. We had no problem parking right outside our room, there is additional parking available at the hotel next door which is good as there are not many spaces; I could see there being a fight for parking otherwise if the hotel was busy. However, we did not have a problem, don't know if that is because we went in late September but there was always one space left for us. We would mostly be out in the morning and coming back at night though so don't know how it would have been if we had wanted to go back during the day with the car.The internet is free and really good quality; you get a code from reception (they do change it so may have to go and ask more than once).  The "breakfast" they offer is literally just little boxes of cereal, coffee, tea and juice. Breakfast was a bit poor to be honest.The pool is tiny- it is not really a pool but an oversized bath tub lol. We did attempt to go in it but the water was too cold and to be honest actually really dirty (that could have just been when we were there). This and the breakfast would be my only downsides but we were so busy seeing LA it didn't really affect us. I read some people saw loads of cockroaches etc before we went but we didn't see anything like this. I also did not experience any rude staff and the people at reception were always talkative and polite when we went to see them.I would recommend this hotel for the unfussy who just want a cheap, centralized base for Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r320134926-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>320134926</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great value hotel!</t>
+  </si>
+  <si>
+    <t>My mom and I stayed at this hotel for a few nights in early September. Upon arrival, the staff was very friendly, check in was very quick and we were even offered to book activities/taxi/shuttle for us. The rooms were very clean and the bed very comfortable. The hotel is perfectly located as it is walking distance to all the attractions on Hollywood Blvd. I would definitely return to this hotel and recommend it to anybody looking for a nice place to stay without paying an arm and a leg.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r316359311-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>316359311</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Great location! Good for a short time</t>
+  </si>
+  <si>
+    <t>We stopped through LA on our road trip and wanted to stay somewhere central - this place was definitely perfect for tourist destinations! Hollywood blvd is a block North. Don't be afraid to walk around though (maybe not at night because there isn't many people around) - we walked down to Sunset Strip area and it only took us about 25 mins (but if you are short for time, take a cab!) Id classify this more as a "motel" - rooms were ok &amp; were accessible from outside. Seemed clean. Small things for breakfast such as coffee, tea, OJ, donuts, cookies, &amp; croissants. Decently priced for downtown LA, but definitely a budget inn if you would rather spend your money doing things in LA vs where you stay. Parking was free - we came back one night kind of late (like 10?) and all the spots were almost gone - they have overflow parking in the next door budget motel (but it seems kinda sketchy). MoreShow less</t>
+  </si>
+  <si>
+    <t>We stopped through LA on our road trip and wanted to stay somewhere central - this place was definitely perfect for tourist destinations! Hollywood blvd is a block North. Don't be afraid to walk around though (maybe not at night because there isn't many people around) - we walked down to Sunset Strip area and it only took us about 25 mins (but if you are short for time, take a cab!) Id classify this more as a "motel" - rooms were ok &amp; were accessible from outside. Seemed clean. Small things for breakfast such as coffee, tea, OJ, donuts, cookies, &amp; croissants. Decently priced for downtown LA, but definitely a budget inn if you would rather spend your money doing things in LA vs where you stay. Parking was free - we came back one night kind of late (like 10?) and all the spots were almost gone - they have overflow parking in the next door budget motel (but it seems kinda sketchy). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r310023433-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>310023433</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After paying for stay they push for extras such as tours and airport pickups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location is pretty close to Hollywood Boulevard, even if a bit of a rough area. The room is clean and spacious and free WiFi good. The breakfast is a joke, a couple of donuts, coffee (not enough for more than 6 or 7 guests) mini boxes of cornflakes. No seating, all left on a counter in small reception room. The pool was also filthy, never saw it cleaned during our 5 day stay. It's hot in Hollywood so it would have been nice to utilise and one of the reasons I booked this location, but no thanks I didn't want to catch anything. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r283735851-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>283735851</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Close to Hollywood</t>
+  </si>
+  <si>
+    <t>The room was clean which was good since we saw cockroaches on the street nearby! The staff asked a lot of questions when we arrived. The location is great since it's a 5 mins walk from Hollywood and the walk of fame. It also has a lot of restaurants nearby. So I would say if you're not picky and want to stay somewhere cheap then go for it.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r283138431-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>283138431</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Good location in Hollywood. 5 walk to Hollywood Boulevard. Good value for the money you pay. The breakfast is not so good and the doors is not well isolated… But overall is a good place to stay if you don't wanna spend all your money on living and stay in close to everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r282776318-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>282776318</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Unfriendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointing from beginning to end. Car park full. When we parked in a bay was told to move. Staff rude. Will not be going back there. Breakfast was decent and room size is good but brought down by poor staff. Very good location but again not worth overall visit. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r264935171-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264935171</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>First class service</t>
+  </si>
+  <si>
+    <t>Arrived late and hadn't booked before hand. The owner was extremely helpful and went out of his way to make our stay enjoyable. Rooms were clean and tidy, breakfast was great. The service we were given was outstanding. Location was ideal for the sites. Highly recommended.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r262358921-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>262358921</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>very mediocre</t>
+  </si>
+  <si>
+    <t>location was fine, (a little bit seedy), but of all of the roadway inns that I have stayed at, this was the least nice. In this area, I prefer the beverly blvd rodeway inn, however it is usually sold out. Pool was awful, I would compare it more to a puddle;(</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r260925437-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>260925437</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Value stay</t>
+  </si>
+  <si>
+    <t>This is a pretty standard motel. It's quite cheap for Hollywood, there is free parking and also free breakfast - coffee and pastries etc. Don't expect luxuries but the bed was comfortable, the room was clean and the location is good for Hollywood Boulevard and also getting to Sunset Strip. The only thing is that for some reason the shower was halfway up the wall - impossible to stand under unless you are 4ft tall!Overall it was a good deal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r247403155-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>247403155</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Unfriendley staff!</t>
+  </si>
+  <si>
+    <t>My Wife and I stayed there on December 30th. we went to Hollywood Blvd. Our room was serviced by the maid service. we came back and several of our personal items were missing. we talked to the desk. they said come back tomorrow. come back tomorrow. I said your cleaning personnel took our stuff . He said come back tomorrow. I said we are leaving.. He refused to talk to us. we will never stay at this place again!! Thievery is not an honorable thing!!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r244990526-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>244990526</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This hotel has a Great Location, Great Rooms and a very Friendly Staff.  1 1/2 Blocks from Santa Monica Blvd and 1 Block from Hollywood Blvd.  Rooms are Large and very Clean and everyone of the staff members we encountered were very friendly.  We will defiantly be back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r241777650-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>241777650</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Good for value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms where so comfortable here and it was so close to the walk of fame. It was very clean and the staff where very friendly. We where served breakfast in the rooms which was nice but there wasn't much of a variety. Would definitely recommend this to family and friends. </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r236780603-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>236780603</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Rodeway inn.. Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here I go again in a rodeway inn. Think I would have learned the first time. The price is the only thing going for this place. And the location I guess. The inside wasn't a great sight to see but it's a place to sleep while saving your pennies on an LA vaca. So if you don't have a ton of money to spend then try this place out but don't expect a wonderful time. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r232982147-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>232982147</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Location is questionable but you get what you pay for.</t>
+  </si>
+  <si>
+    <t>Arrived at 4 and room was ready. Location was a little scary but once inside the room, not horrible. Toilet clogged on first flush and when I told the front desk, guy looked at me like I had 4 heads. I asked for a plunger and fixed it myself.Short walk to Hollywood, 2 blocks. Easy and close and other than having to pass the homeless man with his pants down, exposing himself, the walk was quick and easy.Chick Fil A was a quick walk as was Chinese Food and Rite Aid. We only stayed here 1 night and I am glad I didn't have to stay here longer than that. MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived at 4 and room was ready. Location was a little scary but once inside the room, not horrible. Toilet clogged on first flush and when I told the front desk, guy looked at me like I had 4 heads. I asked for a plunger and fixed it myself.Short walk to Hollywood, 2 blocks. Easy and close and other than having to pass the homeless man with his pants down, exposing himself, the walk was quick and easy.Chick Fil A was a quick walk as was Chinese Food and Rite Aid. We only stayed here 1 night and I am glad I didn't have to stay here longer than that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r230867092-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230867092</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights while on business in the Hollywood area</t>
+  </si>
+  <si>
+    <t>So after researching the area hotels prior to my trip, I found the Roadway Inn to be a decent price for the area, and with mixed reviews...I thought what the heck. I checked in around 4pm on an unusually hot day in Los Angeles (104). Went to my 2nd floor room, and found the room hotter than outside. It took till about midnight to cool down. The room was basic, clean, and just right for my solo trip. Very convenient to Hollywood Blvd. Santa Monica Blvd. I did not go down for continental breakfast, but opted for DRNK Coffee a 2 minute walk. Parking is VERY tight, and if you come back late in the evening, you must park next door @ Budget Suites, in a dirt parking lot. Pretty sketchy. Also there is a homeless camp, just outside the parking lot, and as you walk by, you almost have to step over these people, and the smell is awful. As others have mentioned, it is very noisy, with sirens blaring throughout the night. If you are doing the sights of Hollywood, or a business trip, just needing a place to crash, this is for you. Rooms clean, lot's to see and do nearby, plenty of restaurants, and the price is right. Otherwise spend the money, and stay somewhere nicer...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>So after researching the area hotels prior to my trip, I found the Roadway Inn to be a decent price for the area, and with mixed reviews...I thought what the heck. I checked in around 4pm on an unusually hot day in Los Angeles (104). Went to my 2nd floor room, and found the room hotter than outside. It took till about midnight to cool down. The room was basic, clean, and just right for my solo trip. Very convenient to Hollywood Blvd. Santa Monica Blvd. I did not go down for continental breakfast, but opted for DRNK Coffee a 2 minute walk. Parking is VERY tight, and if you come back late in the evening, you must park next door @ Budget Suites, in a dirt parking lot. Pretty sketchy. Also there is a homeless camp, just outside the parking lot, and as you walk by, you almost have to step over these people, and the smell is awful. As others have mentioned, it is very noisy, with sirens blaring throughout the night. If you are doing the sights of Hollywood, or a business trip, just needing a place to crash, this is for you. Rooms clean, lot's to see and do nearby, plenty of restaurants, and the price is right. Otherwise spend the money, and stay somewhere nicer...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r213917230-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>213917230</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Brilliant location</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 3 nights, we travel from Las Vegas to hollywood with myself, my husband and 5 children aged 7-16yrs.  The hotel was very pleasant the pool was lovely. The one major disappointment was breakfast...in my eyes there was none, juice was a Capri sun, and there was stodgy muffins with one toaster which held 2 pieces, we had to go shopping in the local store to get breakfast and cereal for our rooms.  I questioned the staff "is this it? Is this breakfast?" And they just nodded as if it was take it or leave it, and to make it worse it was in the reception where there was no room to swing a cat.  The staff were kinda scruffy and kinda ignorant however the hotel it self was clean enough and beds were comfy and everything you wanted was just a small walk away.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 3 nights, we travel from Las Vegas to hollywood with myself, my husband and 5 children aged 7-16yrs.  The hotel was very pleasant the pool was lovely. The one major disappointment was breakfast...in my eyes there was none, juice was a Capri sun, and there was stodgy muffins with one toaster which held 2 pieces, we had to go shopping in the local store to get breakfast and cereal for our rooms.  I questioned the staff "is this it? Is this breakfast?" And they just nodded as if it was take it or leave it, and to make it worse it was in the reception where there was no room to swing a cat.  The staff were kinda scruffy and kinda ignorant however the hotel it self was clean enough and beds were comfy and everything you wanted was just a small walk away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r213562506-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>213562506</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Avoid!</t>
+  </si>
+  <si>
+    <t>Friendly check-in staff but that was it.  Very dated rooms.  At 3am, guests in room next to ours were very disruptive!!! The motel parking lot was full, so I was asked to park my car in the shared overflow parking lot next door.  The check-in staff said the lot was safe and under surveillance.  In the morning I found one of my car hub caps missing and the other slightly chipped.  When I complained, I got deaf ears!  I requested that they review the cctv tape which they did independently, not allowing me to view it with them, eventually saying they saw nothing out of the ordinary!  Even for a quick overnight, this place is not worth it at all.  AVOID, AVOID, AVOIDMoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly check-in staff but that was it.  Very dated rooms.  At 3am, guests in room next to ours were very disruptive!!! The motel parking lot was full, so I was asked to park my car in the shared overflow parking lot next door.  The check-in staff said the lot was safe and under surveillance.  In the morning I found one of my car hub caps missing and the other slightly chipped.  When I complained, I got deaf ears!  I requested that they review the cctv tape which they did independently, not allowing me to view it with them, eventually saying they saw nothing out of the ordinary!  Even for a quick overnight, this place is not worth it at all.  AVOID, AVOID, AVOIDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r211930805-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>211930805</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>A great little gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We weren't expecting much from this place as it was cheap and most people told us LA is only worth driving through. We booked one night but we were so impressed with the level of service and facilities that we booked a second night. Very clean room with everything included as you'd expect. A nice looking pool although we didn't go in. Very helpful staff who booked us an LA tour and got us a discount. We would definitely stay here again and recommend anyone to book in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r204341260-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>204341260</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Double charged our credit card!!</t>
+  </si>
+  <si>
+    <t>Our stay here was decent and its in a convenient area although when I arrived back at home I had noticed that they had double charged my credit card. I have been trying to get this fixed but the staff are not helpful at all and are responding with "its too damn bad" Don't stay here unless you want this hotel to steal your money...</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r200655366-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>200655366</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Good price and location for Hollywood</t>
+  </si>
+  <si>
+    <t>Our family of four stayed five nights. We where on the bottom floor and room was clean and comfortable. Breakfast is boxes of cereal, donuts, cookies, croissants, bananas, coffee &amp; juice. There is nowhere to sit so we would take back to our room each morning.  Parking is free and is a great location especially for Universal Studios. My only compliant was rooms would open out to the open and although we never heard traffic noise one morning at 2am guests where having a rather loud conversation in front of our door. Another late night early morning someone was crushing cans. Both times hubby had to tell them to move on.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of four stayed five nights. We where on the bottom floor and room was clean and comfortable. Breakfast is boxes of cereal, donuts, cookies, croissants, bananas, coffee &amp; juice. There is nowhere to sit so we would take back to our room each morning.  Parking is free and is a great location especially for Universal Studios. My only compliant was rooms would open out to the open and although we never heard traffic noise one morning at 2am guests where having a rather loud conversation in front of our door. Another late night early morning someone was crushing cans. Both times hubby had to tell them to move on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r200454428-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>200454428</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Great location - best accommodation</t>
+  </si>
+  <si>
+    <t>Great location minutes away from the Walk of Fame, the Hollywood Highland Centre and Hollywood Blvd.  During my last trip I stayed in 4 different hotels in Hollywood and the Rodeway Inn Hollywood was the star.  Frankly if you're going to be out and about all day - this is the perfect accommodation.  The rooms are spacious, comfortable, have recently been renovated and look good.  The rooms are equipped with a small microwave and fridge - which is fabulous when you've had enough of going out to restaurants every night.  My main complaint would be the noise at night from inconsiderate fellow guests.   It would be great if the management went out to deal with these guests but perhaps this is asking too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Great location minutes away from the Walk of Fame, the Hollywood Highland Centre and Hollywood Blvd.  During my last trip I stayed in 4 different hotels in Hollywood and the Rodeway Inn Hollywood was the star.  Frankly if you're going to be out and about all day - this is the perfect accommodation.  The rooms are spacious, comfortable, have recently been renovated and look good.  The rooms are equipped with a small microwave and fridge - which is fabulous when you've had enough of going out to restaurants every night.  My main complaint would be the noise at night from inconsiderate fellow guests.   It would be great if the management went out to deal with these guests but perhaps this is asking too much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r198755369-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198755369</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Great Location in Hollywood</t>
+  </si>
+  <si>
+    <t>The location is perfect for all we wnated to do in West Hollywood.  The staff were very Friendly.  The room was Large and comfortable, the only thing is that if you are over 6 foot tall the shower is very low for us tall folks.  Will defienlty stay here again on our next trip to West Hollywood..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r190808405-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190808405</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Muy buen alojamiento</t>
+  </si>
+  <si>
+    <t>Muy buena atencion, el personal muy atento las 24hs, nos ayudo en lo que necesitamos, habitacion comoda, el barrio tranquilo a metros de The Groove, y todas las principales lineas de bus. El desayuno esta bien tambien.The attention in the hotel was very good, and the people working there were very kind as they helped in everything we needed. The room was comfortable. The neighbourhood was quiet and we had The groove and bus stops two blocks away! The breakfast service was also good.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r188574198-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188574198</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Halfway-Renovation</t>
+  </si>
+  <si>
+    <t>What we liked: new beds - comfortable. Also in a nice area near the Grove. What went wrong: faulty TV, not a single lamp in the room or art on walls. When we asked for a lamp, they brought a weird desk lamp in with no shade, and plugged the three-prong cord into a two prong extension cord (bending third prong back) - very dangerous. Bath stopper would not work - they asked us to move to another room, but we were already unpacked and on our way out for the day. Paint on doors scratched off in chunks. Doors to hotel are left open to street, bringing in colder night air and who knows what. Did not feel private. Parking is in a back alley next to overflowing dumpster or underground. Do not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>What we liked: new beds - comfortable. Also in a nice area near the Grove. What went wrong: faulty TV, not a single lamp in the room or art on walls. When we asked for a lamp, they brought a weird desk lamp in with no shade, and plugged the three-prong cord into a two prong extension cord (bending third prong back) - very dangerous. Bath stopper would not work - they asked us to move to another room, but we were already unpacked and on our way out for the day. Paint on doors scratched off in chunks. Doors to hotel are left open to street, bringing in colder night air and who knows what. Did not feel private. Parking is in a back alley next to overflowing dumpster or underground. Do not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r180290484-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180290484</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Affordable comfort in the heart of Hollywood</t>
+  </si>
+  <si>
+    <t>We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre....We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre. Turn left out of the hotel and a few mins walk brings you to a fantastic shoe store for all shoe lovers out there (great discounts!) and turn right for various take out food places and a Rite Aid. Would def recommend a night at the Laugh Factory during your stay (get bus heading west from over road from hotel for about ten mins. We are planning our trip for next year and will definitely be staying here again of we can. Thanks Rodeway Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre....We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre. Turn left out of the hotel and a few mins walk brings you to a fantastic shoe store for all shoe lovers out there (great discounts!) and turn right for various take out food places and a Rite Aid. Would def recommend a night at the Laugh Factory during your stay (get bus heading west from over road from hotel for about ten mins. We are planning our trip for next year and will definitely be staying here again of we can. Thanks Rodeway Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r178509721-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>178509721</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Fantastic.</t>
+  </si>
+  <si>
+    <t>Stayed here for a week, and had an awesome time.Staff were super friendly and helpful, they booked tours for us and everything.Rooms were clean and nice.Location was awesome like a 5 minute walk to Hollywood boulevard.Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r172056066-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>172056066</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Nice room close to Hollywood Blvd!</t>
+  </si>
+  <si>
+    <t>A friend gave me the address of this hotel, and I didn't get disappointed! The room was really correct with a fridge, a microwave, good AC, TV, clean bathroom and a comfortable bed!We could have a breakfast in the morning until 9 am. It's actually only a table with croissants, donuts, tea, coffee, cookies, milk, cereals and orange juice. You have to have to help yourself and eat in your room. It's actually not that bad!The parking is free and big enough for all the cars. We had to drive to Universal Studios or Santa Monica for example but everything was pretty close ( 10-20 min driving if no traffic jam!)Hollywood Blvd is situated only 10 min waking from the hotel which is nice at night!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>A friend gave me the address of this hotel, and I didn't get disappointed! The room was really correct with a fridge, a microwave, good AC, TV, clean bathroom and a comfortable bed!We could have a breakfast in the morning until 9 am. It's actually only a table with croissants, donuts, tea, coffee, cookies, milk, cereals and orange juice. You have to have to help yourself and eat in your room. It's actually not that bad!The parking is free and big enough for all the cars. We had to drive to Universal Studios or Santa Monica for example but everything was pretty close ( 10-20 min driving if no traffic jam!)Hollywood Blvd is situated only 10 min waking from the hotel which is nice at night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r169408600-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169408600</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Bad place to stay they have lots of bugs and cockroachs everywhere in the room... We got in and out in less than a hour.... No place to park my van also and there is no manager till 10 of the morning........................ Please not stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r166793740-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166793740</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>We felt that this property, which was formerly an Econ-Lodge, was not a bargin.  To illustrate, when you check in at the front dest, they have bullet proof glass installed because of the high crime rate in this area.  The rate was high by about $15. They did have gates at both ends of the property, one of which was permantly blocked, the other was closed at about 5:00 p.m.  It was opened by your car coming withing about 4inches of the gate.  Now this seemed to be a good thing, until one realizes that any car can do this and break in to your car at will.  There were no security cameras in the inside parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We felt that this property, which was formerly an Econ-Lodge, was not a bargin.  To illustrate, when you check in at the front dest, they have bullet proof glass installed because of the high crime rate in this area.  The rate was high by about $15. They did have gates at both ends of the property, one of which was permantly blocked, the other was closed at about 5:00 p.m.  It was opened by your car coming withing about 4inches of the gate.  Now this seemed to be a good thing, until one realizes that any car can do this and break in to your car at will.  There were no security cameras in the inside parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r165984438-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165984438</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>No complaints here. Everything was clean and well kept. Close to many attractions and easy to get around. Ate at Mel's Diner around the corner and enjoyed a nice meal.  The staff at the hotel were very friendly and helpful. The price was very reasonable. The "continental" breakfast was a bit sparse. Don't expect a lot on that one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r162372567-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162372567</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r162233195-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162233195</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Great location, adequate price, average room</t>
+  </si>
+  <si>
+    <t>If you are looking for location this is your choice in Hollywood, just two bloocks (3 minutes) away from Hollywoof/Highland metro station which means you can easily move to other LA spots like Downtown or Universal StudiosMany options of restaurants, bars and clubs in Hollywood, Sunset and Santa Monica Blvd  will be at walking distance (20 minutes top) and believe me, you don't have to worry about the security of the area, the first thing I did when arrived at 2am was walk a couple of blocks to an IHOP... of course there are homeless people around but you better get used to it while you're in LARegarding the room I didn't like that it had a quirky smell (humidity maybe), is not that bad and  you will get used to it but for some it might be a big noThe walls are thin and sometimes you will hear the noise from the other roomsRoom and bathroom are clean but I'm sure the rug has seen better daysI usually spend very few time in the hotels (quick shower and 4 to 5 hours of sleep) so I privilege location-price and am willing to pass details like the above but if you will spend more time in the hotel and want to have a good rest I recommend to look for a different placeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>If you are looking for location this is your choice in Hollywood, just two bloocks (3 minutes) away from Hollywoof/Highland metro station which means you can easily move to other LA spots like Downtown or Universal StudiosMany options of restaurants, bars and clubs in Hollywood, Sunset and Santa Monica Blvd  will be at walking distance (20 minutes top) and believe me, you don't have to worry about the security of the area, the first thing I did when arrived at 2am was walk a couple of blocks to an IHOP... of course there are homeless people around but you better get used to it while you're in LARegarding the room I didn't like that it had a quirky smell (humidity maybe), is not that bad and  you will get used to it but for some it might be a big noThe walls are thin and sometimes you will hear the noise from the other roomsRoom and bathroom are clean but I'm sure the rug has seen better daysI usually spend very few time in the hotels (quick shower and 4 to 5 hours of sleep) so I privilege location-price and am willing to pass details like the above but if you will spend more time in the hotel and want to have a good rest I recommend to look for a different placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r161714158-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161714158</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Perfect position</t>
+  </si>
+  <si>
+    <t>The position is perfect for visit Hollywood,for using hop on hop off bus.Tea/coffee maker;fridge;microwave;spatious room.The brekfast same every day, basic but enough with fresh and good croissantes,milk,coffe, fruits. Didn't like: in first night the bedding was unchanged,with brown long hair (not mine-short and blond) on the pillows. The room's windows dirty.Noisy air-con.They didn't send me by mail the bill even if asked them by mail this and also booking.com asked them,too.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r156725909-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156725909</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>bad motel in good location</t>
+  </si>
+  <si>
+    <t>It is in walking distance to Hollywood Blvd attractions, and serves free breakfast, relatively cheap. That is all for pros.You might not get parking space if you return too late in the evening, you may also find vomiting customers (or just vomit at your doorstep), not very friendly reception people, and insects in room.Wifi is free, but also pretty useless.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r153489537-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153489537</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Make sure you pack socks!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were pleasantly surprised at the hotel room at first glance- spacious, looks tidy and clean, happy with the tv and bed...carpet is filthy!!! Disgustingly filthy...if we weren't wearing shoes our feet got completely black...walking the streets of Hollywood with bare feet our feet would have been cleaner!!! Disgusted. Breakfast was doughnuts (at least they were fresh), guy who worked behind the desk bummed a cigarette off my partner- very unprofessional! The area is kinda dodgy- didn't feel safe straying too far, but I guess that's hollywood!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r152559286-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152559286</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just  a few minutes from Hollywood blvd the Chinese Theatre  even saw Robert De Niro on our last day doing the hands and feet in the cement  in the walk of fame what a bonus !! Stayed 10 days great coffee shop few doors up  everything you need in  large room  staff friendly.  Breakfast the usual donuts and croissants but also had fruit and cereal  in the lobby but you could sit round the pool or take it back to your room would stay there again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r148251302-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>148251302</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent wifi</t>
+  </si>
+  <si>
+    <t>We were looking for somewhere to stay whilst we visited the Hollywood strip. For the area, the Rodeway Inn is quite good. There is allot of homeless people and cheap shops. There is free parking at the motel, and the room was clean and spacious. The furniture is a bit old but okay. The biggest problem was how cold the room was at night. I had on two pairs of socks on and a sweater and was still cold. The best part about the motel was the wifi. We stayed at Rodeway over Christmas, and the wifi was good enough for me to skype with my family. There was also a small fridge and microwave in the room, which I thought was a bonus for this level of motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for somewhere to stay whilst we visited the Hollywood strip. For the area, the Rodeway Inn is quite good. There is allot of homeless people and cheap shops. There is free parking at the motel, and the room was clean and spacious. The furniture is a bit old but okay. The biggest problem was how cold the room was at night. I had on two pairs of socks on and a sweater and was still cold. The best part about the motel was the wifi. We stayed at Rodeway over Christmas, and the wifi was good enough for me to skype with my family. There was also a small fridge and microwave in the room, which I thought was a bonus for this level of motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r146728377-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>146728377</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>Great location and an even better price!</t>
+  </si>
+  <si>
+    <t>We paid about $85 a night on a weekend with a AAA discount. The motel is across the street from Hollywood High so we were able to walk almost everywhere we went!  We arrived at noon and even though there were no rooms ready and check in time isn't until 3pm, the gentleman at the front desk was able to get us into a room within an hour of us arriving. The room was small but clean. There was a coffee maker and a fridge. It's a perfect place to stay if you want an okay room in an excellent location!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r146382876-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>146382876</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>clean, well run great location</t>
+  </si>
+  <si>
+    <t>the owner really craes, the rooms are updated [think low cost Hyatt or hilton type decor] flat screen, modern colors, small [its an Old 50s motel underneath it all] but genuily clean and just weel run. brekkie decent for around there, nice lil private [unheated] pool in back.. kool views from th top floors of th H hills.. free relativly safe parking.. for the price, you can't go wrong..esp in that loaction, lots of wayy worse around there.. I staa in alot of choice hotels, i was impressed for th $!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r143508540-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143508540</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Great overnight stay</t>
+  </si>
+  <si>
+    <t>We had a good night sleep after a very long flight ... two adults and two kids in a room with two queen beds fitted pretty well for one night ... we could walk to the 'walk of fame' and strolled along to stretch our legs whichw as great ... breakfast was quick and easy before getting in the car ... would stay here again for an overnight stay.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r142084947-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142084947</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Excellent choice for Hollywood</t>
+  </si>
+  <si>
+    <t>From the start I must say that you cannot expect from a 2 stars motel the conditions of a five stars hotel. But there are some few good things to say about Rodeway Inn (the Sunset Blv version):- it is close to tourist area of Hollywood (5 minutes walk)- it is clean (the carpets in my rooms were changed new in the day I arrived)- it has a good price (still, high, but this is the area... nothing can be done)Location is good, even if you may complain about the street sounds. Some can fear about the junkies on the boulevard but they are not agressive - just don't speak with them and, if you're a girl, move forward. In 5 mins you are on the Hollywood Blvd. Lots of restaurants nearby. A big shoe mall also. Rooms are ok. No bugs. All you need: air conditioning, lcd tv, fridge, microwave... Is not waw but it has everything. The mexican ladies clean every day. There is a small pool, but I didn't use it. The guy from the reception was nice. A complimentary basic breakfast every day at the reception: donuts, fruits, juice and coffee - you can take them in your room.If you want a good hotel in a good location - near Dolby (Kodak) Theatre and everything... just book it.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the start I must say that you cannot expect from a 2 stars motel the conditions of a five stars hotel. But there are some few good things to say about Rodeway Inn (the Sunset Blv version):- it is close to tourist area of Hollywood (5 minutes walk)- it is clean (the carpets in my rooms were changed new in the day I arrived)- it has a good price (still, high, but this is the area... nothing can be done)Location is good, even if you may complain about the street sounds. Some can fear about the junkies on the boulevard but they are not agressive - just don't speak with them and, if you're a girl, move forward. In 5 mins you are on the Hollywood Blvd. Lots of restaurants nearby. A big shoe mall also. Rooms are ok. No bugs. All you need: air conditioning, lcd tv, fridge, microwave... Is not waw but it has everything. The mexican ladies clean every day. There is a small pool, but I didn't use it. The guy from the reception was nice. A complimentary basic breakfast every day at the reception: donuts, fruits, juice and coffee - you can take them in your room.If you want a good hotel in a good location - near Dolby (Kodak) Theatre and everything... just book it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r141608977-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141608977</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Dissatisfied Aussie</t>
+  </si>
+  <si>
+    <t>The carpets in this Inn are filthy, do not wear light coloured sox or bare feet on this carpet if you expect to stay clean.While there I paid cash for a phone call only to find when arriving home they had debited my credit card for the call and then refunded it costing me the exchange rate.Not impressed with their incompetence and the dishonest manager.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r140185836-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>140185836</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Great location, clean, value for money</t>
+  </si>
+  <si>
+    <t>I searched and searched for a reasonably priced hotel and Rodeway in turned out to be perfect. It's a great location you can walk around the corner and see the Hollywood sign from the street, and you're only a block away from the Chinese and Dolby theatres. I wasn't expecting too much on cleanliness but it was very clean, comfortable beds, big bathroom and the staff were very helpful. Breakfast is a few pastries in the reception area but that's fine with so much food in America it was good not to feel like you had to over eat. I would definitely stay there again and the reception guy even lent me a travel plug for the night. Overall very pleased as I was expecting nothing and got a nice surprise. It's motel type accomodation and good value for moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>I searched and searched for a reasonably priced hotel and Rodeway in turned out to be perfect. It's a great location you can walk around the corner and see the Hollywood sign from the street, and you're only a block away from the Chinese and Dolby theatres. I wasn't expecting too much on cleanliness but it was very clean, comfortable beds, big bathroom and the staff were very helpful. Breakfast is a few pastries in the reception area but that's fine with so much food in America it was good not to feel like you had to over eat. I would definitely stay there again and the reception guy even lent me a travel plug for the night. Overall very pleased as I was expecting nothing and got a nice surprise. It's motel type accomodation and good value for moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r137276718-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>137276718</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Better Than Expected</t>
+  </si>
+  <si>
+    <t>Based on other reviews, I had very low expectations of this Motel. I was pleasantly surprised by the cleanliness of the room I had, and how well I slept. Clean, comfortable and in an amazing location. Only negatives' were the size of the room, and the bath tub. The room had so much furniture it was hard to move around in. The bath tub looked a little worse for wear so I did not use it. That isn't to say that it wasn't clean, just in need of an update. I will also note the bed in my room was new and very comfortable. I did not wake early enough to try the free breakfast unfortunately. Overall I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Based on other reviews, I had very low expectations of this Motel. I was pleasantly surprised by the cleanliness of the room I had, and how well I slept. Clean, comfortable and in an amazing location. Only negatives' were the size of the room, and the bath tub. The room had so much furniture it was hard to move around in. The bath tub looked a little worse for wear so I did not use it. That isn't to say that it wasn't clean, just in need of an update. I will also note the bed in my room was new and very comfortable. I did not wake early enough to try the free breakfast unfortunately. Overall I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r133660121-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133660121</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Rodeway inn</t>
+  </si>
+  <si>
+    <t>Stumbled across this motel during my road trip. great location only 5 min walk from Hollywood blvd. the room was quite a good size and very clean. big bed and flat screen tv. air con was excellent. on site parking. breakfast was suprisingly good. would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r131703307-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131703307</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>A Great Find</t>
+  </si>
+  <si>
+    <t>I noticed this place on a previouse visit to Hollywood, liked its look and location, and decided to give it a try.  Turned out to be a great find.  The location is hard to beat, a short walk from Hollywood Blvd.  Many classc Hollywood attractions are within walking distance.  In fact I parked my car when I checked in and didn't move it until I checked out two days later.  The neighborhood's full of restaurants, and a drug store and grocery store are close.  There's also a Red Line subway stop nearby which makes getting downtown easy.  The room was clean and comfortable.  All things considered, a great value.  I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I noticed this place on a previouse visit to Hollywood, liked its look and location, and decided to give it a try.  Turned out to be a great find.  The location is hard to beat, a short walk from Hollywood Blvd.  Many classc Hollywood attractions are within walking distance.  In fact I parked my car when I checked in and didn't move it until I checked out two days later.  The neighborhood's full of restaurants, and a drug store and grocery store are close.  There's also a Red Line subway stop nearby which makes getting downtown easy.  The room was clean and comfortable.  All things considered, a great value.  I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r130115837-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130115837</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised - would stay again</t>
+  </si>
+  <si>
+    <t>Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel...Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel and the location particularly and would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel...Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel and the location particularly and would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r129208350-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129208350</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Very good hotel for the price</t>
+  </si>
+  <si>
+    <t>I don't understand some of the bad reviews. I think the room I stayed in was excellent, The room smelled nice, the bathroom was very clean and so was everything else in the room. The free breakfast is limited but delicious and always fully stocked, you have a free meal every day while here! The front desk staff really helped me out on sightseeing tours, local places in the area, and of course the Price is Right across the street. The area around the hotel at night is a little sketchy but otheriwse this was really a great stay for the price and location! Can't wait to go back and stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I don't understand some of the bad reviews. I think the room I stayed in was excellent, The room smelled nice, the bathroom was very clean and so was everything else in the room. The free breakfast is limited but delicious and always fully stocked, you have a free meal every day while here! The front desk staff really helped me out on sightseeing tours, local places in the area, and of course the Price is Right across the street. The area around the hotel at night is a little sketchy but otheriwse this was really a great stay for the price and location! Can't wait to go back and stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125668399-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125668399</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Good location, ants in the room</t>
+  </si>
+  <si>
+    <t>First of all, the location of this motel is great! Located on Sunset Blvd., it's just a short walk to the famous Hollywood Blvd. (Walk of Fame, Kodak Theatre,...). It's also a great starting point if you plan to visit Universal Studios Hollywood (just a 10 minute drive).The room has been renovated shortly before. It seemed to be clean at first, but later we recognized that there were ants in our room. Unfortunately we also had them in our suitcases afterwards. The nights were a little bit creepy, as you hear police cars all night long. I would avoid to leave the room after sunset.We stayed 4 nights there.Apart from the "Ants problem", the room was nice and worth the money, considering the big plus of this motel --&gt; the great location!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>First of all, the location of this motel is great! Located on Sunset Blvd., it's just a short walk to the famous Hollywood Blvd. (Walk of Fame, Kodak Theatre,...). It's also a great starting point if you plan to visit Universal Studios Hollywood (just a 10 minute drive).The room has been renovated shortly before. It seemed to be clean at first, but later we recognized that there were ants in our room. Unfortunately we also had them in our suitcases afterwards. The nights were a little bit creepy, as you hear police cars all night long. I would avoid to leave the room after sunset.We stayed 4 nights there.Apart from the "Ants problem", the room was nice and worth the money, considering the big plus of this motel --&gt; the great location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125111147-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125111147</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Rodeway Inn Hollywood, Ca</t>
+  </si>
+  <si>
+    <t>We stayed two nights in this extremely clean motel that is only a slow ten minute stroll to the Ripley's Believe It or Not Museum, Kodak Theatre , Madame Tussauds' Wax Museum and more. The staff is very pleasant and helpful, and for the price it can't be beat.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125021753-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125021753</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Don't expect too much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location was pretty good, need to walk some, rooms were out dated and painted really poorly, the lock on the doors aren't too secure, there is no breakfast.. Says there is but all I have to say is we had to go to chick fil a across the street. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r119313002-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119313002</t>
+  </si>
+  <si>
+    <t>10/14/2011</t>
+  </si>
+  <si>
+    <t>Great Location, Cheap and Clean.. Fabulous staff</t>
+  </si>
+  <si>
+    <t>Staff were very helpful, checkout time is 11am, yet my flight wasnt until 1030pm but they were more than happy to hold my luggage at no cost for most of the day. Rooms are big, bed very comfy only thing was lugging heavy suitcases up the stairs. Very close the Hollywood Boulevard which is why i chose it and most tour companies pick you up from the door step. would stay again no doubt, dont get too excited about the breakfast included, its not a sit down, its more grab and run, which suited me fine but not for everyone. Complimentry toiletries and a nice hand cream added bonus. Eateries around close walking distance, i arrived late around 8pm was getting dark, was solo so i didnt hang around outside too long had a dodgy feel but not enough that i was running looking over my shoulder, just kept my wits about me. Would stay here again, everything was clean, comfy and affordable, and staff more than  helpful. Basic tea coffee facilities in room, fridge and microwave, air con.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Staff were very helpful, checkout time is 11am, yet my flight wasnt until 1030pm but they were more than happy to hold my luggage at no cost for most of the day. Rooms are big, bed very comfy only thing was lugging heavy suitcases up the stairs. Very close the Hollywood Boulevard which is why i chose it and most tour companies pick you up from the door step. would stay again no doubt, dont get too excited about the breakfast included, its not a sit down, its more grab and run, which suited me fine but not for everyone. Complimentry toiletries and a nice hand cream added bonus. Eateries around close walking distance, i arrived late around 8pm was getting dark, was solo so i didnt hang around outside too long had a dodgy feel but not enough that i was running looking over my shoulder, just kept my wits about me. Would stay here again, everything was clean, comfy and affordable, and staff more than  helpful. Basic tea coffee facilities in room, fridge and microwave, air con.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r119192393-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119192393</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>Exellent stay - Universal Studios+Hollywood</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights. It is a very clean motel with nice staff!No bed bugs at all!!!The breakfast which was included was nice with croisants and donuts. Coffeemaker is in the room and very handy!There is a nice restaurant in the neigbourhood: buena vista or something like thatThe walk of fame is just 10min by foot.I would highly recommend this hotel for budget reasons. And when we are in Los Angeles we would stay there again!Serge and Saskia Segers from Belgium</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r118796667-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>118796667</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Have not stayed yet..</t>
+  </si>
+  <si>
+    <t>Does  anyone know if they use mattress covers &amp; what the bed bug situation is like? Are there any bugs in the room at all? Are the rooms clean? My son &amp; I are planning a trip next month and just wanted to check b4 we went...Any comments would be appreciated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r115120494-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115120494</t>
+  </si>
+  <si>
+    <t>07/07/2011</t>
+  </si>
+  <si>
+    <t>Nice central location</t>
+  </si>
+  <si>
+    <t>Rooms aren't very big, the pool is tiny, but it's central location was pretty good. Enough to explore in walking distance (Walk of fame e.g.) Plenty of breakfasts to be found (Ihop next door more or less)</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r112754689-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>112754689</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel, good location and not so expensive</t>
+  </si>
+  <si>
+    <t>This is a nice hotel, has a microwave and mini-refrigerator in every room, the location is great just 3 blocks away from Hollywood Walk of Fame and Metro Rail System in L.A. which can take you anywhere you want.The only bad thing is that TV has only a few channels but anyway you are in Hollywood you don't need a lot of channels there, there are many things to do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r110649666-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>110649666</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>close to everywhere, reasonable room, really noisy</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, first night kept awake by nearby rooms partying until 5am - walking in and out along the balcony past our window, shouting and singing, banging doors. It was awful, although prob not the motel 's fault. Traffic noise is fairly horrendous but we hot used to that. Room was large, clean, good amenities (fridge, microwave and coffee maker) clean large bathroom with hot shower. Housekeeping was spotless every day. Very comfortable bed. Breakfast very basic and just in the small reception area, no tables.  Free WiFi was great. And on our last day reception looked after our luggage until 5pm for no charge - great !! Too cold to swim but the small pool looked clean and inviting except that it is quite open to the street so no privacy. Walking distance to Hollywood Boulevard, easyaccess to great public transport right outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, first night kept awake by nearby rooms partying until 5am - walking in and out along the balcony past our window, shouting and singing, banging doors. It was awful, although prob not the motel 's fault. Traffic noise is fairly horrendous but we hot used to that. Room was large, clean, good amenities (fridge, microwave and coffee maker) clean large bathroom with hot shower. Housekeeping was spotless every day. Very comfortable bed. Breakfast very basic and just in the small reception area, no tables.  Free WiFi was great. And on our last day reception looked after our luggage until 5pm for no charge - great !! Too cold to swim but the small pool looked clean and inviting except that it is quite open to the street so no privacy. Walking distance to Hollywood Boulevard, easyaccess to great public transport right outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r89230692-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>89230692</t>
+  </si>
+  <si>
+    <t>12/07/2010</t>
+  </si>
+  <si>
+    <t>Overall, not too bad</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights in September 2010 before heading to Las Vegas.
+When we checked in, the man on reception was very rude and unhelpful, and offered no help in lugging our suitcases up the stairs to get to our room, which is the last thing you need after a 10 hour flight and being awake for 19 hours, so we were disappointed at first.
+However, the next day, it was a different man on reception who was very helpful and gave us a list of bars/restaurants to go to and he also had very good local knowledge and warned us of bad areas to avoid.
+The room was clean and spacious and the air-conditioning worked fine.  The only thing I found strange was having the wash basins outside the bathroom in the bedroom part, but it wasn't a problem, just felt a little weird lol.
+This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily...Stayed here for 3 nights in September 2010 before heading to Las Vegas.When we checked in, the man on reception was very rude and unhelpful, and offered no help in lugging our suitcases up the stairs to get to our room, which is the last thing you need after a 10 hour flight and being awake for 19 hours, so we were disappointed at first.However, the next day, it was a different man on reception who was very helpful and gave us a list of bars/restaurants to go to and he also had very good local knowledge and warned us of bad areas to avoid.The room was clean and spacious and the air-conditioning worked fine.  The only thing I found strange was having the wash basins outside the bathroom in the bedroom part, but it wasn't a problem, just felt a little weird lol.This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily available).There was a small swimming pool, but it didn't look very well maintained and I wouldn't risk going for a swim, however, we did see a couple of people using it.I would recommend this hotel if you are only in LA for a short while.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights in September 2010 before heading to Las Vegas.
+When we checked in, the man on reception was very rude and unhelpful, and offered no help in lugging our suitcases up the stairs to get to our room, which is the last thing you need after a 10 hour flight and being awake for 19 hours, so we were disappointed at first.
+However, the next day, it was a different man on reception who was very helpful and gave us a list of bars/restaurants to go to and he also had very good local knowledge and warned us of bad areas to avoid.
+The room was clean and spacious and the air-conditioning worked fine.  The only thing I found strange was having the wash basins outside the bathroom in the bedroom part, but it wasn't a problem, just felt a little weird lol.
+This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily...Stayed here for 3 nights in September 2010 before heading to Las Vegas.When we checked in, the man on reception was very rude and unhelpful, and offered no help in lugging our suitcases up the stairs to get to our room, which is the last thing you need after a 10 hour flight and being awake for 19 hours, so we were disappointed at first.However, the next day, it was a different man on reception who was very helpful and gave us a list of bars/restaurants to go to and he also had very good local knowledge and warned us of bad areas to avoid.The room was clean and spacious and the air-conditioning worked fine.  The only thing I found strange was having the wash basins outside the bathroom in the bedroom part, but it wasn't a problem, just felt a little weird lol.This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily available).There was a small swimming pool, but it didn't look very well maintained and I wouldn't risk going for a swim, however, we did see a couple of people using it.I would recommend this hotel if you are only in LA for a short while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r83929919-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>83929919</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Good and clean nearby the Kodak Theatre</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn Hollywood is a nice, comfortable and clean Motel at the heart of Hollywood. Me and my girlfriend stayed 6 days here and we had a good time.Location:- located directly at the Sunset Boulevard- 5 Minutes to walk to the Kadak Theatre, the Walk of Fame and the Grauman's Chinese Theatre- cuple of bars, resturants and shops (souveniers and food) in the nearby neighbourhoodFacility:- free parking at the hotel area infront of the rooms- small pool at the parking areaRoom:- the room is big, comfortable and clean equipped with TV, fridge and mikrowave- the bathroom is small but sufficientBreakfast:- nothing special, but okay: coffee/ tea, fruits, croissants and donutsStaff:- helpful and friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn Hollywood is a nice, comfortable and clean Motel at the heart of Hollywood. Me and my girlfriend stayed 6 days here and we had a good time.Location:- located directly at the Sunset Boulevard- 5 Minutes to walk to the Kadak Theatre, the Walk of Fame and the Grauman's Chinese Theatre- cuple of bars, resturants and shops (souveniers and food) in the nearby neighbourhoodFacility:- free parking at the hotel area infront of the rooms- small pool at the parking areaRoom:- the room is big, comfortable and clean equipped with TV, fridge and mikrowave- the bathroom is small but sufficientBreakfast:- nothing special, but okay: coffee/ tea, fruits, croissants and donutsStaff:- helpful and friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r65945231-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>65945231</t>
+  </si>
+  <si>
+    <t>05/31/2010</t>
+  </si>
+  <si>
+    <t>Great Value! Friendly Staff! AMAZING LOCATION!!!</t>
+  </si>
+  <si>
+    <t>We flew in from BC, Canada and came from LAX to the Rodeway Inn!I was a little spectacle due to other review and seemingly low cost. (FYI we booked direct from their website and used our CAA (AAA) card for $10 off.  Location was perfect as we too were going to a taping of Jimmy Kimmel (Slayer!!!) It was across from Hollywood High, just up from In-N-Out Burger and 7min walk to Hollywood Blvd. (El Capitan Theatre) Front staff was friendly and availableRoom was big and cleanKing Bed was comfy and hugeWiFi was free and good signalBathroom shower pressure was quite poorNo Safe in roomPool was tiny and not clean although the birds loved it!Staff allowed us to park the next day in their lot from am to approx. 3pm without an issue.So if you are looking for a place to sleep, close to strip and all attractions with friendly staff then this will work.  Cheap and couldn't be better located!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>We flew in from BC, Canada and came from LAX to the Rodeway Inn!I was a little spectacle due to other review and seemingly low cost. (FYI we booked direct from their website and used our CAA (AAA) card for $10 off.  Location was perfect as we too were going to a taping of Jimmy Kimmel (Slayer!!!) It was across from Hollywood High, just up from In-N-Out Burger and 7min walk to Hollywood Blvd. (El Capitan Theatre) Front staff was friendly and availableRoom was big and cleanKing Bed was comfy and hugeWiFi was free and good signalBathroom shower pressure was quite poorNo Safe in roomPool was tiny and not clean although the birds loved it!Staff allowed us to park the next day in their lot from am to approx. 3pm without an issue.So if you are looking for a place to sleep, close to strip and all attractions with friendly staff then this will work.  Cheap and couldn't be better located!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r49612793-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>49612793</t>
+  </si>
+  <si>
+    <t>11/19/2009</t>
+  </si>
+  <si>
+    <t>Moneys worth!!!!!</t>
+  </si>
+  <si>
+    <t>Staying in this hotel as we speak. We checked out a lot of others for similar or greater prices which were in the same area but were very grungy and dirty. This hotel is nice, very clean and is cleaned every day, microwave, fridge, breakfast in morning, has a pool, wireless internet and big getting ready area with granite benches all for around the same price as a hostel!!! We got discount on tours and the guy behind the desk was very helpful and kind. So overall the staff are very friendly it is a great location being one street behind Hollywood and we would definitively recommend to our friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Rodeway Inn Hollywood, responded to this reviewResponded November 27, 2009</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2009</t>
+  </si>
+  <si>
+    <t>Staying in this hotel as we speak. We checked out a lot of others for similar or greater prices which were in the same area but were very grungy and dirty. This hotel is nice, very clean and is cleaned every day, microwave, fridge, breakfast in morning, has a pool, wireless internet and big getting ready area with granite benches all for around the same price as a hostel!!! We got discount on tours and the guy behind the desk was very helpful and kind. So overall the staff are very friendly it is a great location being one street behind Hollywood and we would definitively recommend to our friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r48634949-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>48634949</t>
+  </si>
+  <si>
+    <t>11/06/2009</t>
+  </si>
+  <si>
+    <t>Never go to this motel, it full of insects and cockroaches</t>
+  </si>
+  <si>
+    <t>The room looks great at first glance.During night we woke up scratching and foundour bed is full of insects and cockroaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>The room looks great at first glance.During night we woke up scratching and foundour bed is full of insects and cockroaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r47058733-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>47058733</t>
+  </si>
+  <si>
+    <t>10/16/2009</t>
+  </si>
+  <si>
+    <t>A good Motel..deserves good reveues</t>
+  </si>
+  <si>
+    <t>A good value and location motel. I was unsure when booking because of some of the revues. When I arrived, the motel looked well kept, and staff could not have been more helpful. The rooms were good standard and clean, and the rate paid for a, two bed, room was reasonable for the location.,The area felt safe during the day, and a mile long walk along 'Sunset'  to the Palladium theatre, and return at 11pm, in the evening,was comfortable and safe. Short walk to 'Walk of Fame' (10 mins).Breakfast comprised of coffee, tea, cakes, cookies, Croissants, and fruit.I would recomend to families and singles. Ignore the 'whingers'MoreShow less</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Rodeway Inn Hollywood, responded to this reviewResponded November 3, 2009</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2009</t>
+  </si>
+  <si>
+    <t>A good value and location motel. I was unsure when booking because of some of the revues. When I arrived, the motel looked well kept, and staff could not have been more helpful. The rooms were good standard and clean, and the rate paid for a, two bed, room was reasonable for the location.,The area felt safe during the day, and a mile long walk along 'Sunset'  to the Palladium theatre, and return at 11pm, in the evening,was comfortable and safe. Short walk to 'Walk of Fame' (10 mins).Breakfast comprised of coffee, tea, cakes, cookies, Croissants, and fruit.I would recomend to families and singles. Ignore the 'whingers'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r40365298-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>40365298</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>not worth the way over-priced price</t>
+  </si>
+  <si>
+    <t>This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the...This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the cheapest in the area!!  DON'T WASTE YOUR MONEY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the...This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the cheapest in the area!!  DON'T WASTE YOUR MONEY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r33438530-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>33438530</t>
+  </si>
+  <si>
+    <t>06/29/2009</t>
+  </si>
+  <si>
+    <t>Really good hotel</t>
+  </si>
+  <si>
+    <t>I stayed here in June and thought the hotel staff were very helpful and would help us with whatever we needed. They even let us have a couple of hours extra in the room after the checkout time due to our flight being later!The hotel itself was very clean and to be honest, for the price there was nothing to moan about whatsoever.I will definitely be staying here again!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r27381077-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>27381077</t>
+  </si>
+  <si>
+    <t>04/03/2009</t>
+  </si>
+  <si>
+    <t>Will stay here again, Clean and friendly</t>
+  </si>
+  <si>
+    <t>Older and rooms s bit on the small side. But very clean. Staff very friendly and helpful. I am coming back to hollywood in May and will be staying here again. If your looking for a no frills fair priced place to stay this is it.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r20822498-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20822498</t>
+  </si>
+  <si>
+    <t>10/12/2008</t>
+  </si>
+  <si>
+    <t>Rodeway Inn Revamped !</t>
+  </si>
+  <si>
+    <t>There's been a lot of bad reviews on tnis Inn, however I took a chance and stayed for a weekend and was pleasantly surprised ! They have just installed new carpet in all the rooms. Each room has comfortable bedding, a/c, crown molding, colored accent walls, local cable t.v., full bathroom w/ separate dressing area, and spacious rooms. There's a 7-11 within walking distance, a juice/shake bar, and a Grocery store just a few blocks away. Not to mention you are right on sunset Blvd. I will stay there again.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r20693086-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20693086</t>
+  </si>
+  <si>
+    <t>10/07/2008</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>Well I am very surprised to read these reviews, we got a business card of this hotels with a recommendation froma friend who stayed there and was very happy about it so we did not have a reson to doubt the place, when we came - at 11pm we were promptly offered a room , they only had  smoking room but promised to move us the next day which they did. Both of the rooms were clean and I can say we would not stay there if they were not. Free wifi, breakfast ( well that wasnt a real breakfast), room service, nice staff and we got a good deal because we stayed for the whole week so it worked out at about 450dollars including tax which was great. The location is amazing as you have everything within walking distance.I would stay there again .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>Well I am very surprised to read these reviews, we got a business card of this hotels with a recommendation froma friend who stayed there and was very happy about it so we did not have a reson to doubt the place, when we came - at 11pm we were promptly offered a room , they only had  smoking room but promised to move us the next day which they did. Both of the rooms were clean and I can say we would not stay there if they were not. Free wifi, breakfast ( well that wasnt a real breakfast), room service, nice staff and we got a good deal because we stayed for the whole week so it worked out at about 450dollars including tax which was great. The location is amazing as you have everything within walking distance.I would stay there again .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r19311778-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>19311778</t>
+  </si>
+  <si>
+    <t>08/24/2008</t>
+  </si>
+  <si>
+    <t>Crap hole</t>
+  </si>
+  <si>
+    <t>The worst hotel I have ever stayed at!!  BARKING dog next door, rude hotel staff, obnoxious guests next door either making noise really late at night or smoking in front of our room.  Do not stay here!  The hotel was last remodeled when LA first became a county.  The prices are not cheap and the continental breakfast is crappy, crusty donuts with stale coffee.  Great if you like $%&amp;^</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r13077685-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>13077685</t>
+  </si>
+  <si>
+    <t>01/28/2008</t>
+  </si>
+  <si>
+    <t>This place rocks!</t>
+  </si>
+  <si>
+    <t>Wow, this place is great for what it is.  A budget  motel in Hollywood. with free parking and free Wi-Fi.  These people who complain expect to get a place like the Hilton or Hyatt for $100 in Hollywood.  They just need to cough up the $200+ it takes to get a nice place and quit bagging on the Rodeway.  It's a roadside motel with 4 walls and a bed.</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r12029371-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>12029371</t>
+  </si>
+  <si>
+    <t>12/29/2007</t>
+  </si>
+  <si>
+    <t>YES, Stay AWAY!</t>
+  </si>
+  <si>
+    <t>Location was probably the only good thing about this place, this is my first time at a rodeway inn, and this is the worst place i have ever stayed at, mosquitos in the room, even with them spraying it with insecticide, although the room was large as well, this rodeway inn was within walking distance from Hollywood/highland station of the MTA, buses on this santa monica area are also frequent if public transportation is what your looking for, wireless net access, just your regular continental breakfast, donuts and coffee, oh, the pool was really dirty!! another bad thing was the lady at the booth wouldnt let me leave my one piece of luggage so i could roam around LA for one more time, thank goodness for the other person allowing me to do it, all in all the mosquitos will be the reason why i dont recommend this motel.. stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Location was probably the only good thing about this place, this is my first time at a rodeway inn, and this is the worst place i have ever stayed at, mosquitos in the room, even with them spraying it with insecticide, although the room was large as well, this rodeway inn was within walking distance from Hollywood/highland station of the MTA, buses on this santa monica area are also frequent if public transportation is what your looking for, wireless net access, just your regular continental breakfast, donuts and coffee, oh, the pool was really dirty!! another bad thing was the lady at the booth wouldnt let me leave my one piece of luggage so i could roam around LA for one more time, thank goodness for the other person allowing me to do it, all in all the mosquitos will be the reason why i dont recommend this motel.. stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r10675544-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>10675544</t>
+  </si>
+  <si>
+    <t>11/07/2007</t>
+  </si>
+  <si>
+    <t>Motel 6 is probably better</t>
+  </si>
+  <si>
+    <t>I booked this hotel, I wanted something extra over and above a bed.But after staying there for five nights, it would have been better to have saved $10 a night and booked a room at Motel 6.The hotel's web site says that the hotel provides "Free Deluxe Continental Breakfast". A donut is NOT a "Deluxe Continental Breakfast". I called the chain HQ, and they could not explain what is Deluxe about it. The website says All Rooms: In-Room Coffee Maker. We stayed in two different rooms, neither had a coffee maker.You want ice? That will be $0,50. You want a extra room key, that will be $5.00. You want to make a local call, that will be a $10.00 deposit. Cost for these services at Motel 6... $0.00Some positives. Hotel location. South of Hollywood Blvd, and West of Highland means A LOT less traffic getting to or from hotel. Generally safe neighborhood  (for Hollywood). Over a long stay, the microwave and fridge can say you a lot in food if you bring your own food.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>I booked this hotel, I wanted something extra over and above a bed.But after staying there for five nights, it would have been better to have saved $10 a night and booked a room at Motel 6.The hotel's web site says that the hotel provides "Free Deluxe Continental Breakfast". A donut is NOT a "Deluxe Continental Breakfast". I called the chain HQ, and they could not explain what is Deluxe about it. The website says All Rooms: In-Room Coffee Maker. We stayed in two different rooms, neither had a coffee maker.You want ice? That will be $0,50. You want a extra room key, that will be $5.00. You want to make a local call, that will be a $10.00 deposit. Cost for these services at Motel 6... $0.00Some positives. Hotel location. South of Hollywood Blvd, and West of Highland means A LOT less traffic getting to or from hotel. Generally safe neighborhood  (for Hollywood). Over a long stay, the microwave and fridge can say you a lot in food if you bring your own food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6819938-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6819938</t>
+  </si>
+  <si>
+    <t>02/19/2007</t>
+  </si>
+  <si>
+    <t>absolutely gross!!! stay away!!!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel should be shut down! There were feses spots on and in the rim of the toilet. I didn't dare sit (used tissue to cover seat). Walls and doors were filthy. Splashes on the walls weren't even cleaned off. The comforters had large burn holes and 1-2 ft. tears in each. At least the sheets were clean looking. Not the same for the blanket. The pillows were waaaaay lumpy. Good thing I had one in car. The towels were like sandpaper. I was only in town for one night and saw the hotel sign say "new rooms". YEAH RIGHT!!! Decided to stay since we were only sleeping. The rude receptionist/clerk probably wouldn't have given us a refund anyway. Next time I am taking disinfecting wipes, more pillows and my own towels to any hotel I go to.I sure hope enough people and the franchise see this and investigate...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>This hotel should be shut down! There were feses spots on and in the rim of the toilet. I didn't dare sit (used tissue to cover seat). Walls and doors were filthy. Splashes on the walls weren't even cleaned off. The comforters had large burn holes and 1-2 ft. tears in each. At least the sheets were clean looking. Not the same for the blanket. The pillows were waaaaay lumpy. Good thing I had one in car. The towels were like sandpaper. I was only in town for one night and saw the hotel sign say "new rooms". YEAH RIGHT!!! Decided to stay since we were only sleeping. The rude receptionist/clerk probably wouldn't have given us a refund anyway. Next time I am taking disinfecting wipes, more pillows and my own towels to any hotel I go to.I sure hope enough people and the franchise see this and investigate...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6746193-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6746193</t>
+  </si>
+  <si>
+    <t>02/04/2007</t>
+  </si>
+  <si>
+    <t>What a dump.......................</t>
+  </si>
+  <si>
+    <t>I used this hotel for one night only to go and see a couple basketball games at Staples.The people who work there dont speak the best English!The room was dirty and grosse - matchsticks on floors (non smoking!), bed dirty, carpet stained. The worst part was the bathroom - bathtub was filthy dirty and had grosse stains everywhere - shower curtain had never been cleaned and had limescale everywhere! If you want a basic hotel then stay here.............if you want a 'clean basic' hotel then dont stay here!!!Please stay somewhere else and do yourself a favor!</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6030723-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6030723</t>
+  </si>
+  <si>
+    <t>10/29/2006</t>
+  </si>
+  <si>
+    <t>good area, comfort rooms</t>
+  </si>
+  <si>
+    <t>i liked the rooms, beds were cosy, and clean bathroom, the staff at desk was helpful</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r661003-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>661003</t>
+  </si>
+  <si>
+    <t>08/17/2002</t>
+  </si>
+  <si>
+    <t>Whorehouse/Motel</t>
+  </si>
+  <si>
+    <t>If you love getting harrassed by prostitutes and their pimps at all hours of the night, you will love the Budget Inn.  The curteous yet dirty staff was more than helpful in making sure that our stay was as miserable as possible.  The random phone calls at six in the morning were a nice touch.  However, it is close to In and Out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r612599-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>612599</t>
+  </si>
+  <si>
+    <t>06/13/2002</t>
+  </si>
+  <si>
+    <t>Budget Inn</t>
+  </si>
+  <si>
+    <t>Not an awesome area per se - right across from Hollywood highschool. Two blocks from an In N Out Burger!!  One block south of Hollywood Boulevard and the Chinese Theatre.  Nice Rooms.  Fairly Cheap.  I liked it and will go back.  Just keep driving if any crazy drunks try to talk to you.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2559,6610 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O39" t="s">
+        <v>144</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>278</v>
+      </c>
+      <c r="O40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>144</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>296</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" t="s">
+        <v>302</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>306</v>
+      </c>
+      <c r="J45" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s">
+        <v>309</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" t="s">
+        <v>318</v>
+      </c>
+      <c r="K47" t="s">
+        <v>319</v>
+      </c>
+      <c r="L47" t="s">
+        <v>320</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>321</v>
+      </c>
+      <c r="O47" t="s">
+        <v>144</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s">
+        <v>339</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O50" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" t="s">
+        <v>348</v>
+      </c>
+      <c r="K52" t="s">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s">
+        <v>350</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" t="s">
+        <v>361</v>
+      </c>
+      <c r="K54" t="s">
+        <v>362</v>
+      </c>
+      <c r="L54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>373</v>
+      </c>
+      <c r="J56" t="s">
+        <v>374</v>
+      </c>
+      <c r="K56" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" t="s">
+        <v>376</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>378</v>
+      </c>
+      <c r="J57" t="s">
+        <v>379</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" t="s">
+        <v>386</v>
+      </c>
+      <c r="K58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>388</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>390</v>
+      </c>
+      <c r="J59" t="s">
+        <v>391</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>144</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+      <c r="J60" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" t="s">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s">
+        <v>397</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>398</v>
+      </c>
+      <c r="O60" t="s">
+        <v>181</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>401</v>
+      </c>
+      <c r="J61" t="s">
+        <v>402</v>
+      </c>
+      <c r="K61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>405</v>
+      </c>
+      <c r="O61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>407</v>
+      </c>
+      <c r="J62" t="s">
+        <v>408</v>
+      </c>
+      <c r="K62" t="s">
+        <v>409</v>
+      </c>
+      <c r="L62" t="s">
+        <v>410</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>398</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" t="s">
+        <v>419</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" t="s">
+        <v>423</v>
+      </c>
+      <c r="L65" t="s">
+        <v>424</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>405</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>427</v>
+      </c>
+      <c r="J66" t="s">
+        <v>428</v>
+      </c>
+      <c r="K66" t="s">
+        <v>429</v>
+      </c>
+      <c r="L66" t="s">
+        <v>430</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>432</v>
+      </c>
+      <c r="J67" t="s">
+        <v>433</v>
+      </c>
+      <c r="K67" t="s">
+        <v>434</v>
+      </c>
+      <c r="L67" t="s">
+        <v>435</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>436</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>437</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>438</v>
+      </c>
+      <c r="J68" t="s">
+        <v>439</v>
+      </c>
+      <c r="K68" t="s">
+        <v>440</v>
+      </c>
+      <c r="L68" t="s">
+        <v>441</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>442</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>444</v>
+      </c>
+      <c r="J69" t="s">
+        <v>445</v>
+      </c>
+      <c r="K69" t="s">
+        <v>446</v>
+      </c>
+      <c r="L69" t="s">
+        <v>447</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>442</v>
+      </c>
+      <c r="O69" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>449</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>450</v>
+      </c>
+      <c r="J70" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" t="s">
+        <v>452</v>
+      </c>
+      <c r="L70" t="s">
+        <v>453</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>442</v>
+      </c>
+      <c r="O70" t="s">
+        <v>144</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>454</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>455</v>
+      </c>
+      <c r="J71" t="s">
+        <v>456</v>
+      </c>
+      <c r="K71" t="s">
+        <v>457</v>
+      </c>
+      <c r="L71" t="s">
+        <v>458</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>460</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
+        <v>462</v>
+      </c>
+      <c r="K72" t="s">
+        <v>463</v>
+      </c>
+      <c r="L72" t="s">
+        <v>464</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>465</v>
+      </c>
+      <c r="O72" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>467</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>468</v>
+      </c>
+      <c r="J73" t="s">
+        <v>469</v>
+      </c>
+      <c r="K73" t="s">
+        <v>470</v>
+      </c>
+      <c r="L73" t="s">
+        <v>471</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>472</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>474</v>
+      </c>
+      <c r="K74" t="s">
+        <v>475</v>
+      </c>
+      <c r="L74" t="s">
+        <v>476</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>181</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>484</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>486</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>487</v>
+      </c>
+      <c r="J76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K76" t="s">
+        <v>489</v>
+      </c>
+      <c r="L76" t="s">
+        <v>490</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>491</v>
+      </c>
+      <c r="O76" t="s">
+        <v>181</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>493</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>494</v>
+      </c>
+      <c r="J77" t="s">
+        <v>495</v>
+      </c>
+      <c r="K77" t="s">
+        <v>496</v>
+      </c>
+      <c r="L77" t="s">
+        <v>497</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>498</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>500</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>501</v>
+      </c>
+      <c r="J78" t="s">
+        <v>502</v>
+      </c>
+      <c r="K78" t="s">
+        <v>503</v>
+      </c>
+      <c r="L78" t="s">
+        <v>504</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>505</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>506</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>507</v>
+      </c>
+      <c r="J79" t="s">
+        <v>508</v>
+      </c>
+      <c r="K79" t="s">
+        <v>509</v>
+      </c>
+      <c r="L79" t="s">
+        <v>510</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>511</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>512</v>
+      </c>
+      <c r="J80" t="s">
+        <v>513</v>
+      </c>
+      <c r="K80" t="s">
+        <v>514</v>
+      </c>
+      <c r="L80" t="s">
+        <v>515</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>516</v>
+      </c>
+      <c r="O80" t="s">
+        <v>181</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>519</v>
+      </c>
+      <c r="J81" t="s">
+        <v>520</v>
+      </c>
+      <c r="K81" t="s">
+        <v>521</v>
+      </c>
+      <c r="L81" t="s">
+        <v>522</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>516</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>523</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>524</v>
+      </c>
+      <c r="J82" t="s">
+        <v>525</v>
+      </c>
+      <c r="K82" t="s">
+        <v>526</v>
+      </c>
+      <c r="L82" t="s">
+        <v>527</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>498</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>528</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>529</v>
+      </c>
+      <c r="J83" t="s">
+        <v>530</v>
+      </c>
+      <c r="K83" t="s">
+        <v>531</v>
+      </c>
+      <c r="L83" t="s">
+        <v>532</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>533</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>534</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>535</v>
+      </c>
+      <c r="J84" t="s">
+        <v>536</v>
+      </c>
+      <c r="K84" t="s">
+        <v>537</v>
+      </c>
+      <c r="L84" t="s">
+        <v>538</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>533</v>
+      </c>
+      <c r="O84" t="s">
+        <v>181</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>539</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>540</v>
+      </c>
+      <c r="J85" t="s">
+        <v>541</v>
+      </c>
+      <c r="K85" t="s">
+        <v>542</v>
+      </c>
+      <c r="L85" t="s">
+        <v>543</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>544</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>546</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>547</v>
+      </c>
+      <c r="J86" t="s">
+        <v>548</v>
+      </c>
+      <c r="K86" t="s">
+        <v>549</v>
+      </c>
+      <c r="L86" t="s">
+        <v>550</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>551</v>
+      </c>
+      <c r="O86" t="s">
+        <v>144</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>553</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>554</v>
+      </c>
+      <c r="J87" t="s">
+        <v>555</v>
+      </c>
+      <c r="K87" t="s">
+        <v>556</v>
+      </c>
+      <c r="L87" t="s">
+        <v>557</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>558</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>565</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>567</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>568</v>
+      </c>
+      <c r="J89" t="s">
+        <v>569</v>
+      </c>
+      <c r="K89" t="s">
+        <v>570</v>
+      </c>
+      <c r="L89" t="s">
+        <v>571</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>572</v>
+      </c>
+      <c r="O89" t="s">
+        <v>144</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>573</v>
+      </c>
+      <c r="X89" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>576</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>577</v>
+      </c>
+      <c r="J90" t="s">
+        <v>578</v>
+      </c>
+      <c r="K90" t="s">
+        <v>579</v>
+      </c>
+      <c r="L90" t="s">
+        <v>580</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>581</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>573</v>
+      </c>
+      <c r="X90" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>584</v>
+      </c>
+      <c r="J91" t="s">
+        <v>585</v>
+      </c>
+      <c r="K91" t="s">
+        <v>586</v>
+      </c>
+      <c r="L91" t="s">
+        <v>587</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>588</v>
+      </c>
+      <c r="X91" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>592</v>
+      </c>
+      <c r="J92" t="s">
+        <v>593</v>
+      </c>
+      <c r="K92" t="s">
+        <v>594</v>
+      </c>
+      <c r="L92" t="s">
+        <v>595</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>596</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>598</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>599</v>
+      </c>
+      <c r="J93" t="s">
+        <v>600</v>
+      </c>
+      <c r="K93" t="s">
+        <v>601</v>
+      </c>
+      <c r="L93" t="s">
+        <v>602</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>596</v>
+      </c>
+      <c r="O93" t="s">
+        <v>144</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>603</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>604</v>
+      </c>
+      <c r="J94" t="s">
+        <v>605</v>
+      </c>
+      <c r="K94" t="s">
+        <v>606</v>
+      </c>
+      <c r="L94" t="s">
+        <v>607</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>608</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>609</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>610</v>
+      </c>
+      <c r="J95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K95" t="s">
+        <v>612</v>
+      </c>
+      <c r="L95" t="s">
+        <v>613</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>614</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>615</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>616</v>
+      </c>
+      <c r="J96" t="s">
+        <v>617</v>
+      </c>
+      <c r="K96" t="s">
+        <v>618</v>
+      </c>
+      <c r="L96" t="s">
+        <v>619</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>620</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>623</v>
+      </c>
+      <c r="J97" t="s">
+        <v>624</v>
+      </c>
+      <c r="K97" t="s">
+        <v>625</v>
+      </c>
+      <c r="L97" t="s">
+        <v>626</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>627</v>
+      </c>
+      <c r="O97" t="s">
+        <v>59</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>628</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>629</v>
+      </c>
+      <c r="J98" t="s">
+        <v>630</v>
+      </c>
+      <c r="K98" t="s">
+        <v>631</v>
+      </c>
+      <c r="L98" t="s">
+        <v>632</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>633</v>
+      </c>
+      <c r="O98" t="s">
+        <v>144</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>635</v>
+      </c>
+      <c r="J99" t="s">
+        <v>636</v>
+      </c>
+      <c r="K99" t="s">
+        <v>637</v>
+      </c>
+      <c r="L99" t="s">
+        <v>638</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>639</v>
+      </c>
+      <c r="O99" t="s">
+        <v>181</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>641</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>642</v>
+      </c>
+      <c r="J100" t="s">
+        <v>643</v>
+      </c>
+      <c r="K100" t="s">
+        <v>644</v>
+      </c>
+      <c r="L100" t="s">
+        <v>645</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>646</v>
+      </c>
+      <c r="O100" t="s">
+        <v>59</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>648</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>649</v>
+      </c>
+      <c r="J101" t="s">
+        <v>650</v>
+      </c>
+      <c r="K101" t="s">
+        <v>651</v>
+      </c>
+      <c r="L101" t="s">
+        <v>652</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>653</v>
+      </c>
+      <c r="O101" t="s">
+        <v>59</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>655</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>656</v>
+      </c>
+      <c r="J102" t="s">
+        <v>657</v>
+      </c>
+      <c r="K102" t="s">
+        <v>658</v>
+      </c>
+      <c r="L102" t="s">
+        <v>659</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>660</v>
+      </c>
+      <c r="O102" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>661</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>662</v>
+      </c>
+      <c r="J103" t="s">
+        <v>663</v>
+      </c>
+      <c r="K103" t="s">
+        <v>664</v>
+      </c>
+      <c r="L103" t="s">
+        <v>665</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>666</v>
+      </c>
+      <c r="O103" t="s">
+        <v>67</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>667</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>668</v>
+      </c>
+      <c r="J104" t="s">
+        <v>669</v>
+      </c>
+      <c r="K104" t="s">
+        <v>670</v>
+      </c>
+      <c r="L104" t="s">
+        <v>671</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>45465</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>672</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>673</v>
+      </c>
+      <c r="J105" t="s">
+        <v>674</v>
+      </c>
+      <c r="K105" t="s">
+        <v>675</v>
+      </c>
+      <c r="L105" t="s">
+        <v>676</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_672.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Igor K</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jordynskye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r574470947-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too...We were booked via our travel agent for 4 nights. Upon arriving we had arrived at 7am and upon going to check in we were told check in is at 3! We had all of our luggage from just arriving,  i asked if we could store it somewhere so we did not walk around with it for 6 hours! I was rudely told a straight out NO! After looking like we had to other options i went in and kindly asked again , still the same answer. We walked to the cafe down the road looking for storage . After walking around for half an hour we went back in and asked again! This time he said he can store them in thw office!! We had asked not once but three times the same question and now he let us? Then he saif we could check in at 12 not 3pm? Wtf!!! He wanted a credit card for the booking which i gave him our currency card and he said it could not be used when i was already told it could be! After the argument and him calling someone, he all of a sudden was able to use it. Fast forward to our last night here we had been out for the day. The day before new tv's were getting installed and i joked saying "i hope we get a new one" well i wished for a little too much. Upon returning from our day our door was wide open ( with all of our personal belongings) still inside to a new t.v which was not even set up on the bracket and all of our stuff had been moved! After settling down and our room had just been finished being cleaned i went looking for my lighter. It was not where i left it. I tore the room apart and it still was not there. I took myself to the front desk and i asked if our room door has been open long, he openly admitted to it being open for a while i asked him "why is that needed we trust them with our personal belongings"! He had no answer at all and i said my lighter had been stolen ! (Well the only thing i have noticed thus far) he continued to argue with me saying he "was the best at his job" he gave me matches!!! I said this is horrible to employ staff that steal peoples personal belongings from their own rooms! I stormed off after i said i will be making a review to which he got his back up and said "fine go ahead" which he was hard to understand anyway and threw his hands in the air. A couple of minutes later he approaches me and says "is this your lighter"? I said "ummmmm yes where was it?" He would not answer and said nothing then walked away. Im glad to know it grew legs and walked away  the inconsistency in the housekeeping is bad, they talk to loud at 8 in the morning . The staff are nasty! Never again !!!!More</t>
   </si>
   <si>
+    <t>Luna s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r567710710-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Disgustingly  Dirty place an extremely rude. We hooked on hotels.com and he refused to check me in once I noticed how dirty the rooms were when doing a walk through.  The caulked edges of the bath tub were totally moldy, there were hairs on the sheets And the toilets, and when we asked to change rooms They cancel my reservation and asked us to leave because they said that they didn't want "complainers".... he literally yelled at me to leave their property and was so angry and aggressive I could tell he was guilty I was very polite and communicated with a peaceful tone. I simply asked for another room and he refused to check me in. This was for a business trip so when he canceled my reservation he canceled all my colleagues rooms as well which caused a major problem with our work trip travels. I have traveled to over 35 countries... never in my life been so sketched out by a motel  or threatened by a manager/owner. He was a shorter, mid aged Indian man who became upset when I pointed out the molding caulk and hair on sheets and toilet which shows me hes nervous about the health board.More</t>
   </si>
   <si>
+    <t>Andrew K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r534464159-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>pghstillerfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r524774249-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I booked this place because it was close to Hollywood Blvd.  The price wasn't bad for the location.  The room was small but room enough for all our bags.  There was a fridge and microwave, coffee maker, and ironing board.  The continental breakfast was apples, bananas, and donuts.  Not great, but better than nothing.  The room was clean, and the air conditioning worked well.  The water pressure in the shower was the best I've ever encountered.  There's a tiny little swimming pool.  I never saw anyone in it.</t>
   </si>
   <si>
+    <t>Tommy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r523945620-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Staff were friendly - although unfortunately one new member of staff made a mistake when debiting my card and left me without any dollars for a day!Room was fairly big and had a massive bed, it was relatively clean and the air-con and fan systems were decent. Bathroom was okay although the door did not shut properly. Nice big fridge which was an added bonus!Room was quite dark but when you're in Hollywood I guess you won't be spending much time in your room anyway. Offered a few breakfast items which was also a nice touch. If you want luxury then don't stay here but all in all an pleasant stay.More</t>
   </si>
   <si>
+    <t>susanrondine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r491626251-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>I've come to this hotel now for 7 years in a row. Every Spring, my brother &amp; I (and sometimes my sister from Alaska) go to the TCM Festival. This hotel's location is PERFECT!  It's basically 3 blocks from Grauman's Chinese Theater and all the other attractions along Hollywood Blvd.The rooms here are spacious and clean. They've done a recent remodel and it looks great! The beds are comfy and the room includes mini-fridge, microwave, iron/board, and quality soaps and shampoos. The staff is friendly and the housekeeping does a great job and is honest. I like the continental breakfast they offer - it's just enough to get my day started. There is also parking (now they charge for it.... bummer) and my belongings here are always safe.I can recommend this hotel without hesitation. I've included pictures of my room from April 2017.More</t>
   </si>
   <si>
+    <t>Dawni D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r488235250-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>Don't bother! We chose this hotel as it was recommended by Qantas!  It was awful. The rooms were NOT renovated recently as the website and billboard advises - maybe in the 90's! The bathroom was dirty, cracks in the wall tiles. The bed squeaked. The breakfast was a joke! A donut and piece of fruit (if you're there before 8.30am! After 8.30 all there was to offer was a dry chocolate donut (ore bagged)and no coffee!All night the noise of police, fire engines and paramedic services screamed past. Choice Hotels should take this "Inn" off your list of preferred suppliers.  We have stayed with this group during our USA holiday and this place is not up to standard. This was not priced as a budget priced hotel as it should be. The bank style "holdup" glass cubicle at check in reception tells you something about the locality! Location was one street off the Boulevard. Whilst close to the walk of fame, there was a drug needle station two doors along and homeless people everywhere. If we hadn't prepaid this accommodation we would have walked out!! When the Uber drivers double check your destination address and look twice at you in the mirror - we are learning we are in for a rough hotel! More</t>
   </si>
   <si>
+    <t>Renato G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r478414698-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>We needed an affordable place to stay near Hollywood Boulevard for a family of 4. The room was large and clearly newly renovated. The bathroom was well equipped and functional. Loved the large terrace in front of the room. The pool area looked tired and not clean - so we did not use it. Lobby area not nice and not welcoming. Breakfast nothing special. Nevertheless, this hotel worked well for us when staying for one night and not wanting to spend lots of money. We checked in late and simply needed a large and clean room for a good nights' sleep. Some fast food and inexpensive diners in walking distance. Free parking at the hotel.More</t>
   </si>
   <si>
+    <t>Vince L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r465620737-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>An0nym0usC0ntribut0r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r456584195-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Alexandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r455071833-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>bryates</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r440725974-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>Shower had a block on it so you could only take a lukewarm shower. No weather striping which caused the room to be cold and noisy.Plus, management failed to inform us that Santa Monica Blvd would be closed from 2 to 11pm making it impossible to reach our hotel. We saw no signs posted beforehand and were unable to reach our room or even park in the vicinity due to a parade. I accidentally chose this hotel on Tripadvisor while meaning to chose the one on Vine St. That is where we'll be going next time. The manager was hostile when I asked for a refund. Terrible customer service skills.More</t>
   </si>
   <si>
+    <t>Aisling B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r436018414-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Tommi E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r425929080-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>mosauter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r396441605-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>Only 2 blocks from the main strip of Hollywood Blvd so you can walk and not deal with the craaaazy traffic.  Rooms were clean and staff was friendly.  Microwave and mini fridge in every room.  Pool is small but clean.  The only downside is the "continental" breakfast.  Mini boxes of cereal, donuts, croissants, &amp; fresh fruit.  But the milk and OJ was sitting out on the counter instead of being kept in a fridge.  There is no where to eat so you juggle stuff as you walk back to your room to eat.  On the plus side, the donuts and croissants were fresh every day, even still warm.  Would definitely stay again.More</t>
   </si>
   <si>
+    <t>Bruce R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r392225153-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>Very disappointed. Bathroom dirty, pillows less than 2 inches thick. dark rooms, $10 per night to park. Breakfast laughable and served in the 5'x5' lobby. Worst was the bum knocking on doors at 3 am, Police had to be called, no way to get ahold of front desk.Don't stay Here!</t>
   </si>
   <si>
+    <t>Tina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r390383571-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Anne J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r370312567-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -516,6 +573,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>OchoaA03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r368259186-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -531,6 +591,9 @@
     <t xml:space="preserve">We had a nice time here. It is not a very fancy place by any means, but it was fairly clean and the Staff were all Extremely friendly. We did not spend very much time in the room, so it suited our needs. </t>
   </si>
   <si>
+    <t>JuliaDeBxl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r367718268-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -546,6 +609,9 @@
     <t>Positive points- perfect location, central, close to transportation services- Free parking lot- Comfortable room, very well equipedLess positive points- Staff is a bit messy when it comes to managing bookings- The swimming pool was not clean enough to enjoy it- Air conditioning system is very loud- No breakfast room, you have to take your food at the reception. Take a bag or something else to carry your food back to your room</t>
   </si>
   <si>
+    <t>Beachkidboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r355588465-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -567,6 +633,9 @@
     <t>I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the...I stayed here for one night to attend a concert and needed an affordable place, close to the Metro trains. I was looking for a place for the night within walking distance of both Metro trains and the theatre I was going to. I have stayed in Rodeways before so I knew what to expect. This was the worst of three Rodeways I have stayed in. The location right at Sunset &amp; Highland was about 15 minutes from the Metro Red line and from the theatre I was going to. It is quite shabby and appears to only get maintenance as needed. A two-story property in an L shape with rooms opening up to the parking lot, where the pool also located. Upon check-in the attendant is behind plexi-glass and doesn't seem to too concerned about being welcoming or friendly. My room, on the ground floor was as basic as they come. There is a refrigerator and a microwave, in addition to an iron and board, a wall-mounted flat screen TV with direct-TV, and a coffee maker ( only pack of coffee, no decaf or tea). The floor squeaks and there is no information about the hotel itself or anything about nearby places to eat, etc... The only printed material in the room is a tattered yellow pages which was four years old. For drinking there are two flimsy plastic cups and two cardboard cups (for hot beverages). In the bathroom there were enough clean towels and two bars of soap and two containers of shampoo. In the shower/tub I had to lower down a bit as I am 6'1" and would have hit my head on the curtain bar. There is an ice machine which charges you for ice as well as a water vending machine. The pool which I didn't use since I wan't there long enough and it was a cool day was about 8 inches than it's marked level and looked a bit green and dirty as well as leaves and debris. A few dirty and weathered plastic chairs and a table alongside. Inside the room it was quite noisy from noises coming in from the parking lot outside my door, from the vacant junk lot my window looked out onto, or from whoever was above me. I would not stay here again unless I had to. I would pay a bit more to be elsewhere even for just one night. My room by the way was $113. I have stayed at a Rodeway twice before and they were much better than this one.More</t>
   </si>
   <si>
+    <t>Elizabeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r345730610-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -585,6 +654,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Anthony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r344618543-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -601,6 +673,9 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>Jerry C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r341805873-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
@@ -626,6 +701,9 @@
 The room was great! It was clean with some spots on the walls but that didn't bother...Stayed here for one night with a group of friends. There was 6 of us and we booked a room with 3 full beds. Upon check-in the gentleman at the front desk was not very welcoming or friendly. Right off the bat, he was aggressive in making sure I knew the maximum occupancy of the room was 6. Instead of focusing on the check in process, he was closely watching my friends unload the van. He then told me 3 times about the room was non-smoking and that if he catches us that he will charge us $250. By the way, we don't smoke. After checking us on, he realized there was 7 of us but I quickly stated that he was just helping us and would not be spending the night. His attitude and customer service was off putting making me second guess my stay. Not to mention, there were other guests in the lobby listening to this guy tell me for a second time what the maximum occupancy was. I understand they come across a lot of guests who have probably done lots of wrong but that doesn't give him the right to judge us from the moment we walk in. He mentioned the continental breakfast from 730-9am and he did move a cone where we could specifically park our van. The room was great! It was clean with some spots on the walls but that didn't bother us much. It came with a mini fridge, iron with a board, tv and lots of shelf space for clothes. The bathroom had a foul smell but we had no way of opening the window because of how high they put it. The wifi was good but I did call the front desk to get an access code to where the gentlemen told me that he had already given me the code but he'll tell me again (as if it's such an inconvenience to him). We had nice night of sleep and there was parking when we came back from our LA adventure (considering it was a Tuesday, I'm sure it wasn't too busy) It was a little noisy in the morning with the street traffic from Sunset Blvd but we didn't mind. Check out was a breeze but again the gentlemen didn't ask us how our stay was....he just handed us a receipt. He did call me sir and asked how I was doing but at that point he already set in stone his first impression and attitude. I give this hotel 2 stars for the room and parking. There was also a pool but it was too cold for a swim. Don't come here for the customer service. Finally, the price was reasonable at $216 for the night. Nonetheless, We enjoyed our trip and the location was central so lots were close by.More</t>
   </si>
   <si>
+    <t>Sthefanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r340598904-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -639,6 +717,9 @@
   </si>
   <si>
     <t xml:space="preserve">The hotel is situated very close to the walk of fame and other famous areas in town. They have parking lot but when it's full you need to park at another hotel, just next to it but this kind sucked for us cause it was too cold to walk outside. We found a hair in our pillow cases on our first night and that made us feel a little unconfortable. </t>
+  </si>
+  <si>
+    <t>Chloe B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r333290684-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
@@ -664,6 +745,9 @@
 The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the...Stayed here for a week. We booked this firstly for the location and secondly it was cheap. Having heard a lot about the homeless and less desirables that wander about and the whole "hollyweird" status before we went; I was extremely apprehensive about staying in Hollywood and booked this as with a high school right opposite felt it would be a safer option then some of the others available. I am so pleased we did book this, the location is fantastic literally about 5-10 mins walk and you are at the Chinese Theatre, the walk of fame and the Dolby Theatre. There is an in and out burger just across the road, an Ihop bout 5/10 mins walk and a coffee shop a few doors down.The décor of the room was dated but we did not mind as knew for what we were paying we weren't expecting luxury. I have seen on some websites now they appear to have refurbed some of the rooms but we were in the older style ones (the striped bed cover and mahogany furniture). The rooms were of a good quality though. The air condition was one of those units that had been added to the room and did make it a bit smelly like that damp smell you get but we only noticed it when we first walked in.  There was also a fridge and microwave in the room. No qualms with the bed, the pillows could have been a bit better but all in all perfect for what we wanted. One important point regarding the rooms - we had an end room - this was actually a very loud room from outside noises. We were under the stairs so we heard all of the foot traffic above us, people going up and down the stairs and their conversations - not the hotel's fault more just the structure and the lack of courtesy of the other guests not realizing some people may still be asleep and not everyone is up at the crack of dawn - ask for a room in the middle if you can and avoid this. We had no problem parking right outside our room, there is additional parking available at the hotel next door which is good as there are not many spaces; I could see there being a fight for parking otherwise if the hotel was busy. However, we did not have a problem, don't know if that is because we went in late September but there was always one space left for us. We would mostly be out in the morning and coming back at night though so don't know how it would have been if we had wanted to go back during the day with the car.The internet is free and really good quality; you get a code from reception (they do change it so may have to go and ask more than once).  The "breakfast" they offer is literally just little boxes of cereal, coffee, tea and juice. Breakfast was a bit poor to be honest.The pool is tiny- it is not really a pool but an oversized bath tub lol. We did attempt to go in it but the water was too cold and to be honest actually really dirty (that could have just been when we were there). This and the breakfast would be my only downsides but we were so busy seeing LA it didn't really affect us. I read some people saw loads of cockroaches etc before we went but we didn't see anything like this. I also did not experience any rude staff and the people at reception were always talkative and polite when we went to see them.I would recommend this hotel for the unfussy who just want a cheap, centralized base for Hollywood.More</t>
   </si>
   <si>
+    <t>Marie-Eve F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r320134926-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -679,6 +763,9 @@
     <t>My mom and I stayed at this hotel for a few nights in early September. Upon arrival, the staff was very friendly, check in was very quick and we were even offered to book activities/taxi/shuttle for us. The rooms were very clean and the bed very comfortable. The hotel is perfectly located as it is walking distance to all the attractions on Hollywood Blvd. I would definitely return to this hotel and recommend it to anybody looking for a nice place to stay without paying an arm and a leg.</t>
   </si>
   <si>
+    <t>blonde_babe818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r316359311-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -697,6 +784,9 @@
     <t>We stopped through LA on our road trip and wanted to stay somewhere central - this place was definitely perfect for tourist destinations! Hollywood blvd is a block North. Don't be afraid to walk around though (maybe not at night because there isn't many people around) - we walked down to Sunset Strip area and it only took us about 25 mins (but if you are short for time, take a cab!) Id classify this more as a "motel" - rooms were ok &amp; were accessible from outside. Seemed clean. Small things for breakfast such as coffee, tea, OJ, donuts, cookies, &amp; croissants. Decently priced for downtown LA, but definitely a budget inn if you would rather spend your money doing things in LA vs where you stay. Parking was free - we came back one night kind of late (like 10?) and all the spots were almost gone - they have overflow parking in the next door budget motel (but it seems kinda sketchy). More</t>
   </si>
   <si>
+    <t>Carlos B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r310023433-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -712,6 +802,9 @@
     <t xml:space="preserve">The location is pretty close to Hollywood Boulevard, even if a bit of a rough area. The room is clean and spacious and free WiFi good. The breakfast is a joke, a couple of donuts, coffee (not enough for more than 6 or 7 guests) mini boxes of cornflakes. No seating, all left on a counter in small reception room. The pool was also filthy, never saw it cleaned during our 5 day stay. It's hot in Hollywood so it would have been nice to utilise and one of the reasons I booked this location, but no thanks I didn't want to catch anything. </t>
   </si>
   <si>
+    <t>Saadya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r283735851-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -730,6 +823,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Peterlovberg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r283138431-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -742,6 +838,9 @@
     <t>Good location in Hollywood. 5 walk to Hollywood Boulevard. Good value for the money you pay. The breakfast is not so good and the doors is not well isolated… But overall is a good place to stay if you don't wanna spend all your money on living and stay in close to everything.</t>
   </si>
   <si>
+    <t>Warren K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r282776318-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -757,6 +856,9 @@
     <t xml:space="preserve">Very disappointing from beginning to end. Car park full. When we parked in a bay was told to move. Staff rude. Will not be going back there. Breakfast was decent and room size is good but brought down by poor staff. Very good location but again not worth overall visit. </t>
   </si>
   <si>
+    <t>MJBloom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r264935171-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -775,6 +877,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>AMaik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r262358921-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -793,6 +898,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>eh999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r260925437-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -808,6 +916,9 @@
     <t>This is a pretty standard motel. It's quite cheap for Hollywood, there is free parking and also free breakfast - coffee and pastries etc. Don't expect luxuries but the bed was comfortable, the room was clean and the location is good for Hollywood Boulevard and also getting to Sunset Strip. The only thing is that for some reason the shower was halfway up the wall - impossible to stand under unless you are 4ft tall!Overall it was a good deal.</t>
   </si>
   <si>
+    <t>James P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r247403155-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -826,6 +937,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>LVBeachgoer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r244990526-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -841,6 +955,9 @@
     <t>This hotel has a Great Location, Great Rooms and a very Friendly Staff.  1 1/2 Blocks from Santa Monica Blvd and 1 Block from Hollywood Blvd.  Rooms are Large and very Clean and everyone of the staff members we encountered were very friendly.  We will defiantly be back again.</t>
   </si>
   <si>
+    <t>Jose R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r241777650-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -859,6 +976,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Kirstink3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r236780603-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -877,6 +997,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Julie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r232982147-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -895,6 +1018,9 @@
     <t>Arrived at 4 and room was ready. Location was a little scary but once inside the room, not horrible. Toilet clogged on first flush and when I told the front desk, guy looked at me like I had 4 heads. I asked for a plunger and fixed it myself.Short walk to Hollywood, 2 blocks. Easy and close and other than having to pass the homeless man with his pants down, exposing himself, the walk was quick and easy.Chick Fil A was a quick walk as was Chinese Food and Rite Aid. We only stayed here 1 night and I am glad I didn't have to stay here longer than that. More</t>
   </si>
   <si>
+    <t>hoodoo2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r230867092-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -916,6 +1042,9 @@
     <t>So after researching the area hotels prior to my trip, I found the Roadway Inn to be a decent price for the area, and with mixed reviews...I thought what the heck. I checked in around 4pm on an unusually hot day in Los Angeles (104). Went to my 2nd floor room, and found the room hotter than outside. It took till about midnight to cool down. The room was basic, clean, and just right for my solo trip. Very convenient to Hollywood Blvd. Santa Monica Blvd. I did not go down for continental breakfast, but opted for DRNK Coffee a 2 minute walk. Parking is VERY tight, and if you come back late in the evening, you must park next door @ Budget Suites, in a dirt parking lot. Pretty sketchy. Also there is a homeless camp, just outside the parking lot, and as you walk by, you almost have to step over these people, and the smell is awful. As others have mentioned, it is very noisy, with sirens blaring throughout the night. If you are doing the sights of Hollywood, or a business trip, just needing a place to crash, this is for you. Rooms clean, lot's to see and do nearby, plenty of restaurants, and the price is right. Otherwise spend the money, and stay somewhere nicer...More</t>
   </si>
   <si>
+    <t>chavpants</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r213917230-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -937,6 +1066,9 @@
     <t>We stayed in this hotel for 3 nights, we travel from Las Vegas to hollywood with myself, my husband and 5 children aged 7-16yrs.  The hotel was very pleasant the pool was lovely. The one major disappointment was breakfast...in my eyes there was none, juice was a Capri sun, and there was stodgy muffins with one toaster which held 2 pieces, we had to go shopping in the local store to get breakfast and cereal for our rooms.  I questioned the staff "is this it? Is this breakfast?" And they just nodded as if it was take it or leave it, and to make it worse it was in the reception where there was no room to swing a cat.  The staff were kinda scruffy and kinda ignorant however the hotel it self was clean enough and beds were comfy and everything you wanted was just a small walk away.More</t>
   </si>
   <si>
+    <t>Louay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r213562506-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -955,6 +1087,9 @@
     <t>Friendly check-in staff but that was it.  Very dated rooms.  At 3am, guests in room next to ours were very disruptive!!! The motel parking lot was full, so I was asked to park my car in the shared overflow parking lot next door.  The check-in staff said the lot was safe and under surveillance.  In the morning I found one of my car hub caps missing and the other slightly chipped.  When I complained, I got deaf ears!  I requested that they review the cctv tape which they did independently, not allowing me to view it with them, eventually saying they saw nothing out of the ordinary!  Even for a quick overnight, this place is not worth it at all.  AVOID, AVOID, AVOIDMore</t>
   </si>
   <si>
+    <t>TimHebbert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r211930805-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -970,6 +1105,9 @@
     <t xml:space="preserve">We weren't expecting much from this place as it was cheap and most people told us LA is only worth driving through. We booked one night but we were so impressed with the level of service and facilities that we booked a second night. Very clean room with everything included as you'd expect. A nice looking pool although we didn't go in. Very helpful staff who booked us an LA tour and got us a discount. We would definitely stay here again and recommend anyone to book in. </t>
   </si>
   <si>
+    <t>Anon589</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r204341260-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -988,6 +1126,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Lark1962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r200655366-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1006,6 +1147,9 @@
     <t>Our family of four stayed five nights. We where on the bottom floor and room was clean and comfortable. Breakfast is boxes of cereal, donuts, cookies, croissants, bananas, coffee &amp; juice. There is nowhere to sit so we would take back to our room each morning.  Parking is free and is a great location especially for Universal Studios. My only compliant was rooms would open out to the open and although we never heard traffic noise one morning at 2am guests where having a rather loud conversation in front of our door. Another late night early morning someone was crushing cans. Both times hubby had to tell them to move on.More</t>
   </si>
   <si>
+    <t>IBenevolentDictatorI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r200454428-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1042,6 +1186,9 @@
     <t>The location is perfect for all we wnated to do in West Hollywood.  The staff were very Friendly.  The room was Large and comfortable, the only thing is that if you are over 6 foot tall the shower is very low for us tall folks.  Will defienlty stay here again on our next trip to West Hollywood..</t>
   </si>
   <si>
+    <t>Manuel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r190808405-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1060,6 +1207,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>BraveSue80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r188574198-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1081,6 +1231,9 @@
     <t>What we liked: new beds - comfortable. Also in a nice area near the Grove. What went wrong: faulty TV, not a single lamp in the room or art on walls. When we asked for a lamp, they brought a weird desk lamp in with no shade, and plugged the three-prong cord into a two prong extension cord (bending third prong back) - very dangerous. Bath stopper would not work - they asked us to move to another room, but we were already unpacked and on our way out for the day. Paint on doors scratched off in chunks. Doors to hotel are left open to street, bringing in colder night air and who knows what. Did not feel private. Parking is in a back alley next to overflowing dumpster or underground. Do not recommend.More</t>
   </si>
   <si>
+    <t>Liz5185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r180290484-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1099,6 +1252,9 @@
     <t>We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre....We stayed here for a week from September 16th 2013 and honestly could not fault this hotel. The rooms were well equipped with everything that we could need (air con, fridge, bath/shower, television) and the bed was comfortable. Housekeeping came daily and changed towels each time. The owners were fantastic and gave us information about tours and had a large collection of information leaflets. We had a Go Los Angeles card which saved us a fortune on admission to various attractions e.g Universal Studios, Madame Tussaud's, Warner Bros etc. The owners were also very kind and looked after our luggage on our last day as check out was 11am and our transfer wasn't picking us up until 6pm,which we really appreciated. Breakfast is basic but it's free (croissants, cereal, donuts, fruit, tea and coffee) but there's a Mel's diner round the corner on Highland if you want something more substantial! The hotel is in a fantastic location, convenient for transport links (the red line metro is on Hollywood and Highland a few minutes walk away and there is a bus stop right outside the hotel) and close to many major attractions (the Walk of fame, Hollywood Museum, the Graumans Theatre). We didn't drive but a Tap transport card is just $20 for the week which you can get in the metro station or at the Tourist centre which is situated on Hollywood Boulevard by the entrance to the Dolby Theatre. Turn left out of the hotel and a few mins walk brings you to a fantastic shoe store for all shoe lovers out there (great discounts!) and turn right for various take out food places and a Rite Aid. Would def recommend a night at the Laugh Factory during your stay (get bus heading west from over road from hotel for about ten mins. We are planning our trip for next year and will definitely be staying here again of we can. Thanks Rodeway Inn!More</t>
   </si>
   <si>
+    <t>Elisha86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r178509721-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1117,6 +1273,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Charline G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r172056066-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1138,6 +1297,9 @@
     <t>A friend gave me the address of this hotel, and I didn't get disappointed! The room was really correct with a fridge, a microwave, good AC, TV, clean bathroom and a comfortable bed!We could have a breakfast in the morning until 9 am. It's actually only a table with croissants, donuts, tea, coffee, cookies, milk, cereals and orange juice. You have to have to help yourself and eat in your room. It's actually not that bad!The parking is free and big enough for all the cars. We had to drive to Universal Studios or Santa Monica for example but everything was pretty close ( 10-20 min driving if no traffic jam!)Hollywood Blvd is situated only 10 min waking from the hotel which is nice at night!More</t>
   </si>
   <si>
+    <t>M Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r169408600-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1153,6 +1315,9 @@
     <t>Bad place to stay they have lots of bugs and cockroachs everywhere in the room... We got in and out in less than a hour.... No place to park my van also and there is no manager till 10 of the morning........................ Please not stay here.</t>
   </si>
   <si>
+    <t>Bernard K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r166793740-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1174,6 +1339,9 @@
     <t>We felt that this property, which was formerly an Econ-Lodge, was not a bargin.  To illustrate, when you check in at the front dest, they have bullet proof glass installed because of the high crime rate in this area.  The rate was high by about $15. They did have gates at both ends of the property, one of which was permantly blocked, the other was closed at about 5:00 p.m.  It was opened by your car coming withing about 4inches of the gate.  Now this seemed to be a good thing, until one realizes that any car can do this and break in to your car at will.  There were no security cameras in the inside parking.More</t>
   </si>
   <si>
+    <t>ackHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r165984438-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1189,6 +1357,9 @@
     <t>No complaints here. Everything was clean and well kept. Close to many attractions and easy to get around. Ate at Mel's Diner around the corner and enjoyed a nice meal.  The staff at the hotel were very friendly and helpful. The price was very reasonable. The "continental" breakfast was a bit sparse. Don't expect a lot on that one.</t>
   </si>
   <si>
+    <t>LSA1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r162372567-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1201,6 +1372,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Fabian_Gtz_C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r162233195-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1222,6 +1396,9 @@
     <t>If you are looking for location this is your choice in Hollywood, just two bloocks (3 minutes) away from Hollywoof/Highland metro station which means you can easily move to other LA spots like Downtown or Universal StudiosMany options of restaurants, bars and clubs in Hollywood, Sunset and Santa Monica Blvd  will be at walking distance (20 minutes top) and believe me, you don't have to worry about the security of the area, the first thing I did when arrived at 2am was walk a couple of blocks to an IHOP... of course there are homeless people around but you better get used to it while you're in LARegarding the room I didn't like that it had a quirky smell (humidity maybe), is not that bad and  you will get used to it but for some it might be a big noThe walls are thin and sometimes you will hear the noise from the other roomsRoom and bathroom are clean but I'm sure the rug has seen better daysI usually spend very few time in the hotels (quick shower and 4 to 5 hours of sleep) so I privilege location-price and am willing to pass details like the above but if you will spend more time in the hotel and want to have a good rest I recommend to look for a different placeMore</t>
   </si>
   <si>
+    <t>Petroland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r161714158-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1240,6 +1417,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Blond72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r156725909-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1255,6 +1435,9 @@
     <t>It is in walking distance to Hollywood Blvd attractions, and serves free breakfast, relatively cheap. That is all for pros.You might not get parking space if you return too late in the evening, you may also find vomiting customers (or just vomit at your doorstep), not very friendly reception people, and insects in room.Wifi is free, but also pretty useless.</t>
   </si>
   <si>
+    <t>Jesso1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r153489537-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1270,6 +1453,9 @@
     <t xml:space="preserve">We were pleasantly surprised at the hotel room at first glance- spacious, looks tidy and clean, happy with the tv and bed...carpet is filthy!!! Disgustingly filthy...if we weren't wearing shoes our feet got completely black...walking the streets of Hollywood with bare feet our feet would have been cleaner!!! Disgusted. Breakfast was doughnuts (at least they were fresh), guy who worked behind the desk bummed a cigarette off my partner- very unprofessional! The area is kinda dodgy- didn't feel safe straying too far, but I guess that's hollywood!! </t>
   </si>
   <si>
+    <t>Zeffert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r152559286-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1282,6 +1468,9 @@
     <t xml:space="preserve">Just  a few minutes from Hollywood blvd the Chinese Theatre  even saw Robert De Niro on our last day doing the hands and feet in the cement  in the walk of fame what a bonus !! Stayed 10 days great coffee shop few doors up  everything you need in  large room  staff friendly.  Breakfast the usual donuts and croissants but also had fruit and cereal  in the lobby but you could sit round the pool or take it back to your room would stay there again </t>
   </si>
   <si>
+    <t>Cyntheap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r148251302-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1300,6 +1489,9 @@
     <t>We were looking for somewhere to stay whilst we visited the Hollywood strip. For the area, the Rodeway Inn is quite good. There is allot of homeless people and cheap shops. There is free parking at the motel, and the room was clean and spacious. The furniture is a bit old but okay. The biggest problem was how cold the room was at night. I had on two pairs of socks on and a sweater and was still cold. The best part about the motel was the wifi. We stayed at Rodeway over Christmas, and the wifi was good enough for me to skype with my family. There was also a small fridge and microwave in the room, which I thought was a bonus for this level of motel.More</t>
   </si>
   <si>
+    <t>Stacy_SanFrancisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r146728377-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1315,6 +1507,9 @@
     <t>We paid about $85 a night on a weekend with a AAA discount. The motel is across the street from Hollywood High so we were able to walk almost everywhere we went!  We arrived at noon and even though there were no rooms ready and check in time isn't until 3pm, the gentleman at the front desk was able to get us into a room within an hour of us arriving. The room was small but clean. There was a coffee maker and a fridge. It's a perfect place to stay if you want an okay room in an excellent location!</t>
   </si>
   <si>
+    <t>harposCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r146382876-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1333,6 +1528,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>png8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r143508540-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1351,6 +1549,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Flipendo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r142084947-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1369,6 +1570,9 @@
     <t>From the start I must say that you cannot expect from a 2 stars motel the conditions of a five stars hotel. But there are some few good things to say about Rodeway Inn (the Sunset Blv version):- it is close to tourist area of Hollywood (5 minutes walk)- it is clean (the carpets in my rooms were changed new in the day I arrived)- it has a good price (still, high, but this is the area... nothing can be done)Location is good, even if you may complain about the street sounds. Some can fear about the junkies on the boulevard but they are not agressive - just don't speak with them and, if you're a girl, move forward. In 5 mins you are on the Hollywood Blvd. Lots of restaurants nearby. A big shoe mall also. Rooms are ok. No bugs. All you need: air conditioning, lcd tv, fridge, microwave... Is not waw but it has everything. The mexican ladies clean every day. There is a small pool, but I didn't use it. The guy from the reception was nice. A complimentary basic breakfast every day at the reception: donuts, fruits, juice and coffee - you can take them in your room.If you want a good hotel in a good location - near Dolby (Kodak) Theatre and everything... just book it.More</t>
   </si>
   <si>
+    <t>AussieWilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r141608977-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1384,6 +1588,9 @@
     <t>The carpets in this Inn are filthy, do not wear light coloured sox or bare feet on this carpet if you expect to stay clean.While there I paid cash for a phone call only to find when arriving home they had debited my credit card for the call and then refunded it costing me the exchange rate.Not impressed with their incompetence and the dishonest manager.</t>
   </si>
   <si>
+    <t>HairdresserAbroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r140185836-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1402,6 +1609,9 @@
     <t>I searched and searched for a reasonably priced hotel and Rodeway in turned out to be perfect. It's a great location you can walk around the corner and see the Hollywood sign from the street, and you're only a block away from the Chinese and Dolby theatres. I wasn't expecting too much on cleanliness but it was very clean, comfortable beds, big bathroom and the staff were very helpful. Breakfast is a few pastries in the reception area but that's fine with so much food in America it was good not to feel like you had to over eat. I would definitely stay there again and the reception guy even lent me a travel plug for the night. Overall very pleased as I was expecting nothing and got a nice surprise. It's motel type accomodation and good value for moneyMore</t>
   </si>
   <si>
+    <t>Lyle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r137276718-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1423,6 +1633,9 @@
     <t>Based on other reviews, I had very low expectations of this Motel. I was pleasantly surprised by the cleanliness of the room I had, and how well I slept. Clean, comfortable and in an amazing location. Only negatives' were the size of the room, and the bath tub. The room had so much furniture it was hard to move around in. The bath tub looked a little worse for wear so I did not use it. That isn't to say that it wasn't clean, just in need of an update. I will also note the bed in my room was new and very comfortable. I did not wake early enough to try the free breakfast unfortunately. Overall I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Ray8080</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r133660121-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1438,6 +1651,9 @@
     <t>Stumbled across this motel during my road trip. great location only 5 min walk from Hollywood blvd. the room was quite a good size and very clean. big bed and flat screen tv. air con was excellent. on site parking. breakfast was suprisingly good. would stay here again.</t>
   </si>
   <si>
+    <t>Michael A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r131703307-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1459,6 +1675,9 @@
     <t>I noticed this place on a previouse visit to Hollywood, liked its look and location, and decided to give it a try.  Turned out to be a great find.  The location is hard to beat, a short walk from Hollywood Blvd.  Many classc Hollywood attractions are within walking distance.  In fact I parked my car when I checked in and didn't move it until I checked out two days later.  The neighborhood's full of restaurants, and a drug store and grocery store are close.  There's also a Red Line subway stop nearby which makes getting downtown easy.  The room was clean and comfortable.  All things considered, a great value.  I'll stay here again.More</t>
   </si>
   <si>
+    <t>MumofOne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r130115837-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1480,6 +1699,9 @@
     <t>Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel...Drove from Vegas for three nights at the Rodeway Inn.  After staying in the glitz of the Vegas hotels, was a little disappointed when we arrived however, it didn't take long to realise that we'd made a great choice of hotel, good sized car park, not overly small bays, and overflow parking in the hotel next door if required.  10 minutes walk or less to the Hollywood Walk of Fame, where there's also a Metro Station which will take you one stop to Universal Studios.  Also within a few minutes walk are numerous eateries.  The breakfast provided by the hotel was grab and dash, you'd just take it and either go out eating it, or take it back to your room.  Orange juice, coffee, croissants, cookies, that kind of thing.  Otherwise, there's an iHop within less than 10 minutes walk if you turn left when you come out of the hotel.  There was some traffic noise which was audible from our room which ear plugs solved easily, but I'm a light sleeper so always carry them with me when I travel.  We booked a king room which had (obviously) one king sized bed, a large flat screen television mounted on the wall, a fridge, microwave and coffee maker.  The bed linen was crisp and very clean, toiletries were provided in the bathroom, always hot water, shower pressure good.  The room was cleaned daily.  I was very impressed with the hotel and the location particularly and would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Sayingsorry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r129208350-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1501,6 +1723,9 @@
     <t>I don't understand some of the bad reviews. I think the room I stayed in was excellent, The room smelled nice, the bathroom was very clean and so was everything else in the room. The free breakfast is limited but delicious and always fully stocked, you have a free meal every day while here! The front desk staff really helped me out on sightseeing tours, local places in the area, and of course the Price is Right across the street. The area around the hotel at night is a little sketchy but otheriwse this was really a great stay for the price and location! Can't wait to go back and stay here.More</t>
   </si>
   <si>
+    <t>MikeR1989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125668399-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1522,6 +1747,9 @@
     <t>First of all, the location of this motel is great! Located on Sunset Blvd., it's just a short walk to the famous Hollywood Blvd. (Walk of Fame, Kodak Theatre,...). It's also a great starting point if you plan to visit Universal Studios Hollywood (just a 10 minute drive).The room has been renovated shortly before. It seemed to be clean at first, but later we recognized that there were ants in our room. Unfortunately we also had them in our suitcases afterwards. The nights were a little bit creepy, as you hear police cars all night long. I would avoid to leave the room after sunset.We stayed 4 nights there.Apart from the "Ants problem", the room was nice and worth the money, considering the big plus of this motel --&gt; the great location!More</t>
   </si>
   <si>
+    <t>Sue V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125111147-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1540,6 +1768,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Mrpatrick1989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r125021753-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1555,6 +1786,9 @@
     <t xml:space="preserve">Location was pretty good, need to walk some, rooms were out dated and painted really poorly, the lock on the doors aren't too secure, there is no breakfast.. Says there is but all I have to say is we had to go to chick fil a across the street. </t>
   </si>
   <si>
+    <t>Jazvrx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r119313002-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1576,6 +1810,9 @@
     <t>Staff were very helpful, checkout time is 11am, yet my flight wasnt until 1030pm but they were more than happy to hold my luggage at no cost for most of the day. Rooms are big, bed very comfy only thing was lugging heavy suitcases up the stairs. Very close the Hollywood Boulevard which is why i chose it and most tour companies pick you up from the door step. would stay again no doubt, dont get too excited about the breakfast included, its not a sit down, its more grab and run, which suited me fine but not for everyone. Complimentry toiletries and a nice hand cream added bonus. Eateries around close walking distance, i arrived late around 8pm was getting dark, was solo so i didnt hang around outside too long had a dodgy feel but not enough that i was running looking over my shoulder, just kept my wits about me. Would stay here again, everything was clean, comfy and affordable, and staff more than  helpful. Basic tea coffee facilities in room, fridge and microwave, air con.More</t>
   </si>
   <si>
+    <t>Sas1976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r119192393-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1591,6 +1828,9 @@
     <t>We stayed here for 2 nights. It is a very clean motel with nice staff!No bed bugs at all!!!The breakfast which was included was nice with croisants and donuts. Coffeemaker is in the room and very handy!There is a nice restaurant in the neigbourhood: buena vista or something like thatThe walk of fame is just 10min by foot.I would highly recommend this hotel for budget reasons. And when we are in Los Angeles we would stay there again!Serge and Saskia Segers from Belgium</t>
   </si>
   <si>
+    <t>GinaBear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r118796667-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1606,6 +1846,9 @@
     <t>Does  anyone know if they use mattress covers &amp; what the bed bug situation is like? Are there any bugs in the room at all? Are the rooms clean? My son &amp; I are planning a trip next month and just wanted to check b4 we went...Any comments would be appreciated.</t>
   </si>
   <si>
+    <t>DaisyHolland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r115120494-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1624,6 +1867,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Iram77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r112754689-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1639,6 +1885,9 @@
     <t>This is a nice hotel, has a microwave and mini-refrigerator in every room, the location is great just 3 blocks away from Hollywood Walk of Fame and Metro Rail System in L.A. which can take you anywhere you want.The only bad thing is that TV has only a few channels but anyway you are in Hollywood you don't need a lot of channels there, there are many things to do.</t>
   </si>
   <si>
+    <t>magicmum4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r110649666-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1658,6 +1907,9 @@
   </si>
   <si>
     <t>Stayed 4 nights, first night kept awake by nearby rooms partying until 5am - walking in and out along the balcony past our window, shouting and singing, banging doors. It was awful, although prob not the motel 's fault. Traffic noise is fairly horrendous but we hot used to that. Room was large, clean, good amenities (fridge, microwave and coffee maker) clean large bathroom with hot shower. Housekeeping was spotless every day. Very comfortable bed. Breakfast very basic and just in the small reception area, no tables.  Free WiFi was great. And on our last day reception looked after our luggage until 5pm for no charge - great !! Too cold to swim but the small pool looked clean and inviting except that it is quite open to the street so no privacy. Walking distance to Hollywood Boulevard, easyaccess to great public transport right outside.More</t>
+  </si>
+  <si>
+    <t>leonie2606</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r89230692-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
@@ -1689,6 +1941,9 @@
 This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily...Stayed here for 3 nights in September 2010 before heading to Las Vegas.When we checked in, the man on reception was very rude and unhelpful, and offered no help in lugging our suitcases up the stairs to get to our room, which is the last thing you need after a 10 hour flight and being awake for 19 hours, so we were disappointed at first.However, the next day, it was a different man on reception who was very helpful and gave us a list of bars/restaurants to go to and he also had very good local knowledge and warned us of bad areas to avoid.The room was clean and spacious and the air-conditioning worked fine.  The only thing I found strange was having the wash basins outside the bathroom in the bedroom part, but it wasn't a problem, just felt a little weird lol.This hotel is in a very good location, about a 5 minute walk to Hollywood Boulevard where you will find the Walk of Fame, Chinese Theatre, Mini-supermarkets, Souvenir shops, Hooters and other bars and restaurants.  It is however, quite a distance from the main bars on Sunset Strip and you will need a taxi as we found out the first night.  We started walking and after 45mins, still could see no bars, so we flagged down a taxi and it still took an extra 10mins by car.  (be prepared, taxi's are not easily available).There was a small swimming pool, but it didn't look very well maintained and I wouldn't risk going for a swim, however, we did see a couple of people using it.I would recommend this hotel if you are only in LA for a short while.More</t>
   </si>
   <si>
+    <t>buddycasino84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r83929919-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1710,6 +1965,9 @@
     <t>The Rodeway Inn Hollywood is a nice, comfortable and clean Motel at the heart of Hollywood. Me and my girlfriend stayed 6 days here and we had a good time.Location:- located directly at the Sunset Boulevard- 5 Minutes to walk to the Kadak Theatre, the Walk of Fame and the Grauman's Chinese Theatre- cuple of bars, resturants and shops (souveniers and food) in the nearby neighbourhoodFacility:- free parking at the hotel area infront of the rooms- small pool at the parking areaRoom:- the room is big, comfortable and clean equipped with TV, fridge and mikrowave- the bathroom is small but sufficientBreakfast:- nothing special, but okay: coffee/ tea, fruits, croissants and donutsStaff:- helpful and friendlyMore</t>
   </si>
   <si>
+    <t>ElGordo727</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r65945231-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1731,6 +1989,9 @@
     <t>We flew in from BC, Canada and came from LAX to the Rodeway Inn!I was a little spectacle due to other review and seemingly low cost. (FYI we booked direct from their website and used our CAA (AAA) card for $10 off.  Location was perfect as we too were going to a taping of Jimmy Kimmel (Slayer!!!) It was across from Hollywood High, just up from In-N-Out Burger and 7min walk to Hollywood Blvd. (El Capitan Theatre) Front staff was friendly and availableRoom was big and cleanKing Bed was comfy and hugeWiFi was free and good signalBathroom shower pressure was quite poorNo Safe in roomPool was tiny and not clean although the birds loved it!Staff allowed us to park the next day in their lot from am to approx. 3pm without an issue.So if you are looking for a place to sleep, close to strip and all attractions with friendly staff then this will work.  Cheap and couldn't be better located!More</t>
   </si>
   <si>
+    <t>2Aussiegals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r49612793-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1758,6 +2019,9 @@
     <t>Staying in this hotel as we speak. We checked out a lot of others for similar or greater prices which were in the same area but were very grungy and dirty. This hotel is nice, very clean and is cleaned every day, microwave, fridge, breakfast in morning, has a pool, wireless internet and big getting ready area with granite benches all for around the same price as a hostel!!! We got discount on tours and the guy behind the desk was very helpful and kind. So overall the staff are very friendly it is a great location being one street behind Hollywood and we would definitively recommend to our friends.More</t>
   </si>
   <si>
+    <t>dingo79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r48634949-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1779,6 +2043,9 @@
     <t>The room looks great at first glance.During night we woke up scratching and foundour bed is full of insects and cockroaches.More</t>
   </si>
   <si>
+    <t>UkTravelling_man01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r47058733-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1803,6 +2070,9 @@
     <t>A good value and location motel. I was unsure when booking because of some of the revues. When I arrived, the motel looked well kept, and staff could not have been more helpful. The rooms were good standard and clean, and the rate paid for a, two bed, room was reasonable for the location.,The area felt safe during the day, and a mile long walk along 'Sunset'  to the Palladium theatre, and return at 11pm, in the evening,was comfortable and safe. Short walk to 'Walk of Fame' (10 mins).Breakfast comprised of coffee, tea, cakes, cookies, Croissants, and fruit.I would recomend to families and singles. Ignore the 'whingers'More</t>
   </si>
   <si>
+    <t>boo4andrew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r40365298-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1824,6 +2094,9 @@
     <t>This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the...This hotel was in a nasty neighborhood, first of all.  The parking was so tight, we had to pull in and reverse about twenty times to even get in or out.  We checked in and went to our room, which, once inside, I didn't even want to take my shoes off.  THEN we went to the bathroom.  There was a GIANT hairball on the floor, there were short and curlies on the hand towels hanging on the rack, the tub was the blackest tub I had ever seen, and there were suspicious stains on the bed sheets!! We only stayed a few hours before checking out, and that was in the middle of the night!!!  Later around 10 AM we went back to the hotel to talk to the manager about possibly getting at least some of our money back.  The guy, was so indifferent to our complaints, offered up an incredibly weak "sorry" and wouldn't refund any money.  It was as though this was a normal complaint there.  I had even taken pictures of all the complaints and showed him; he just shrugged his shoulders and said he would talk to housekeeping to do a better job...like that was going to help us out at all!!!  But overall, don't stay here - EVER!!  Unless you want pure filth in a crappy neighborhood that is semi-close to attractions!!  we paid $120 dollars for this crap-hole, which was one of the cheapest in the area!!  DON'T WASTE YOUR MONEY!!!More</t>
   </si>
   <si>
+    <t>philonius</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r33438530-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1839,6 +2112,9 @@
     <t>I stayed here in June and thought the hotel staff were very helpful and would help us with whatever we needed. They even let us have a couple of hours extra in the room after the checkout time due to our flight being later!The hotel itself was very clean and to be honest, for the price there was nothing to moan about whatsoever.I will definitely be staying here again!!!!</t>
   </si>
   <si>
+    <t>OregonCaoster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r27381077-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1857,6 +2133,9 @@
     <t>March 2009</t>
   </si>
   <si>
+    <t>Travel'inged</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r20822498-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1875,6 +2154,9 @@
     <t>October 2008</t>
   </si>
   <si>
+    <t>gejsha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r20693086-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1896,6 +2178,9 @@
     <t>Well I am very surprised to read these reviews, we got a business card of this hotels with a recommendation froma friend who stayed there and was very happy about it so we did not have a reson to doubt the place, when we came - at 11pm we were promptly offered a room , they only had  smoking room but promised to move us the next day which they did. Both of the rooms were clean and I can say we would not stay there if they were not. Free wifi, breakfast ( well that wasnt a real breakfast), room service, nice staff and we got a good deal because we stayed for the whole week so it worked out at about 450dollars including tax which was great. The location is amazing as you have everything within walking distance.I would stay there again .More</t>
   </si>
   <si>
+    <t>jcroly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r19311778-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1914,6 +2199,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>JohnnyTheWanderer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r13077685-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1932,6 +2220,9 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>Rich16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r12029371-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1953,6 +2244,9 @@
     <t>Location was probably the only good thing about this place, this is my first time at a rodeway inn, and this is the worst place i have ever stayed at, mosquitos in the room, even with them spraying it with insecticide, although the room was large as well, this rodeway inn was within walking distance from Hollywood/highland station of the MTA, buses on this santa monica area are also frequent if public transportation is what your looking for, wireless net access, just your regular continental breakfast, donuts and coffee, oh, the pool was really dirty!! another bad thing was the lady at the booth wouldnt let me leave my one piece of luggage so i could roam around LA for one more time, thank goodness for the other person allowing me to do it, all in all the mosquitos will be the reason why i dont recommend this motel.. stay away!More</t>
   </si>
   <si>
+    <t>TeufelWolf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r10675544-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1974,6 +2268,9 @@
     <t>I booked this hotel, I wanted something extra over and above a bed.But after staying there for five nights, it would have been better to have saved $10 a night and booked a room at Motel 6.The hotel's web site says that the hotel provides "Free Deluxe Continental Breakfast". A donut is NOT a "Deluxe Continental Breakfast". I called the chain HQ, and they could not explain what is Deluxe about it. The website says All Rooms: In-Room Coffee Maker. We stayed in two different rooms, neither had a coffee maker.You want ice? That will be $0,50. You want a extra room key, that will be $5.00. You want to make a local call, that will be a $10.00 deposit. Cost for these services at Motel 6... $0.00Some positives. Hotel location. South of Hollywood Blvd, and West of Highland means A LOT less traffic getting to or from hotel. Generally safe neighborhood  (for Hollywood). Over a long stay, the microwave and fridge can say you a lot in food if you bring your own food.More</t>
   </si>
   <si>
+    <t>amakristy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6819938-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1995,6 +2292,9 @@
     <t>This hotel should be shut down! There were feses spots on and in the rim of the toilet. I didn't dare sit (used tissue to cover seat). Walls and doors were filthy. Splashes on the walls weren't even cleaned off. The comforters had large burn holes and 1-2 ft. tears in each. At least the sheets were clean looking. Not the same for the blanket. The pillows were waaaaay lumpy. Good thing I had one in car. The towels were like sandpaper. I was only in town for one night and saw the hotel sign say "new rooms". YEAH RIGHT!!! Decided to stay since we were only sleeping. The rude receptionist/clerk probably wouldn't have given us a refund anyway. Next time I am taking disinfecting wipes, more pillows and my own towels to any hotel I go to.I sure hope enough people and the franchise see this and investigate...More</t>
   </si>
   <si>
+    <t>Nick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6746193-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2013,6 +2313,9 @@
     <t>January 2007</t>
   </si>
   <si>
+    <t>rinl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r6030723-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2029,6 +2332,9 @@
   </si>
   <si>
     <t>October 2006</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d504815-r661003-Rodeway_Inn_Hollywood-Los_Angeles_California.html</t>
@@ -2563,43 +2869,47 @@
       <c r="A2" t="n">
         <v>45465</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2613,50 +2923,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45465</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2670,50 +2984,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45465</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2733,50 +3051,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45465</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2794,50 +3116,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45465</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2851,50 +3177,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>45465</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2914,50 +3244,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45465</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2975,50 +3309,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>45465</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3032,50 +3370,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>45465</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3095,50 +3437,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>45465</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3152,50 +3498,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>45465</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3215,50 +3565,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>45465</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3278,50 +3632,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>45465</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3339,50 +3697,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>45465</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3402,50 +3764,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>45465</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3465,50 +3831,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>45465</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3532,50 +3902,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>45465</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3595,50 +3969,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>45465</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3658,35 +4036,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>45465</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3694,10 +4076,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3718,51 +4100,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>45465</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3776,50 +4159,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>45465</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3839,50 +4226,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>45465</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3902,50 +4293,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>45465</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3965,50 +4360,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>45465</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4022,50 +4421,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>45465</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4083,41 +4486,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>45465</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -4136,50 +4543,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>45465</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4199,50 +4610,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>45465</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4256,50 +4671,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>45465</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4313,50 +4732,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>45465</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4370,50 +4793,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>45465</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4431,50 +4858,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>45465</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4494,50 +4925,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>45465</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4551,50 +4986,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>45465</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>278</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4608,50 +5047,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>45465</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4669,50 +5112,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>45465</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4726,50 +5173,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>45465</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>298</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4789,50 +5240,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>45465</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4850,50 +5305,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>45465</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4907,50 +5366,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>45465</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4964,41 +5427,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>45465</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -5027,50 +5494,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>45465</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5090,50 +5561,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>45465</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5157,50 +5632,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>45465</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>348</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="J45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5224,50 +5703,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45465</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="J46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5281,50 +5764,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>45465</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5348,50 +5835,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>45465</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5415,50 +5906,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>45465</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="J49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="K49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="O49" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5482,50 +5977,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>45465</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>305</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="O50" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5549,50 +6048,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>45465</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>388</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5616,50 +6119,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>45465</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>395</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="J52" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="K52" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5683,41 +6190,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>45465</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>403</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="K53" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5746,50 +6257,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>45465</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5813,50 +6328,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>45465</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5870,50 +6389,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>45465</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>425</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="K56" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5937,50 +6460,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>45465</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>431</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6004,50 +6531,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>45465</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>439</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="K58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6071,35 +6602,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>45465</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>445</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="J59" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -6107,10 +6642,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6131,51 +6666,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>45465</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>450</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="J60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6199,50 +6735,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>45465</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>458</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="J61" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="K61" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="L61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O61" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6266,50 +6806,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>45465</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>465</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="J62" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6333,41 +6877,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>45465</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>471</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="K63" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
@@ -6396,41 +6944,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>45465</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>477</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="K64" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6459,50 +7011,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>45465</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>482</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="L65" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6526,41 +7082,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>45465</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>489</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="J66" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="K66" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="L66" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
@@ -6589,50 +7149,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>45465</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>495</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="J67" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="K67" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="O67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6656,50 +7220,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>45465</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>502</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="J68" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="K68" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="L68" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6723,50 +7291,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>45465</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>509</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="J69" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="K69" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="L69" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="O69" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6790,50 +7362,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>45465</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>516</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="J70" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="K70" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="L70" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="O70" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6857,41 +7433,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>45465</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>522</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="J71" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="K71" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="L71" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -6920,50 +7500,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>45465</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>529</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="J72" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="K72" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="L72" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O72" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6987,41 +7571,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>45465</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>537</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="J73" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="K73" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7050,50 +7638,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>45465</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>543</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="J74" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="K74" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="L74" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="O74" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7115,50 +7707,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>45465</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>551</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="J75" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="K75" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7182,50 +7778,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>45465</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>559</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="J76" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="K76" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="L76" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="O76" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7249,50 +7849,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>45465</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>567</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="J77" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="K77" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="L77" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="O77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7316,50 +7920,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>45465</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>575</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="J78" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="K78" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="L78" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="O78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7383,41 +7991,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>45465</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>582</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
       <c r="J79" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="K79" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="L79" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -7446,50 +8058,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>45465</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>588</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="J80" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="K80" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="L80" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="O80" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7513,50 +8129,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>45465</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>596</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="J81" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="K81" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="L81" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7580,50 +8200,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>45465</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>602</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="J82" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="K82" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="L82" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7647,50 +8271,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>45465</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>608</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>529</v>
+        <v>610</v>
       </c>
       <c r="J83" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="K83" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="L83" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7710,50 +8338,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>45465</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="J84" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="K84" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="L84" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="O84" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7773,50 +8405,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>45465</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>621</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="J85" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="K85" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="L85" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="O85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7840,50 +8476,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>45465</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>629</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="J86" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="K86" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="L86" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="O86" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7907,50 +8547,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>45465</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>637</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>554</v>
+        <v>639</v>
       </c>
       <c r="J87" t="s">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="K87" t="s">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="L87" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -7974,50 +8618,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>45465</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>645</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>560</v>
+        <v>646</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
       <c r="J88" t="s">
-        <v>562</v>
+        <v>648</v>
       </c>
       <c r="K88" t="s">
-        <v>563</v>
+        <v>649</v>
       </c>
       <c r="L88" t="s">
-        <v>564</v>
+        <v>650</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="O88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8041,50 +8689,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>566</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>45465</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>653</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>567</v>
+        <v>654</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="J89" t="s">
-        <v>569</v>
+        <v>656</v>
       </c>
       <c r="K89" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="L89" t="s">
-        <v>571</v>
+        <v>658</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="O89" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8106,56 +8758,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="X89" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="Y89" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>45465</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>663</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="J90" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="K90" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="L90" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8177,47 +8833,51 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="X90" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="Y90" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>45465</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>671</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>584</v>
+        <v>673</v>
       </c>
       <c r="J91" t="s">
-        <v>585</v>
+        <v>674</v>
       </c>
       <c r="K91" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
       <c r="L91" t="s">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8244,56 +8904,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="X91" t="s">
-        <v>589</v>
+        <v>678</v>
       </c>
       <c r="Y91" t="s">
-        <v>590</v>
+        <v>679</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>45465</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>680</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="J92" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="K92" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="L92" t="s">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="O92" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8317,50 +8981,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>45465</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>688</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>598</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="J93" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="K93" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="L93" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="O93" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8384,50 +9052,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>45465</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>694</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
       <c r="J94" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="K94" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="L94" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8451,50 +9123,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>45465</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>701</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>610</v>
+        <v>703</v>
       </c>
       <c r="J95" t="s">
-        <v>611</v>
+        <v>704</v>
       </c>
       <c r="K95" t="s">
-        <v>612</v>
+        <v>705</v>
       </c>
       <c r="L95" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>614</v>
+        <v>707</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8518,50 +9194,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>45465</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>708</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>615</v>
+        <v>709</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>616</v>
+        <v>710</v>
       </c>
       <c r="J96" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="K96" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
       <c r="L96" t="s">
-        <v>619</v>
+        <v>713</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8585,50 +9265,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>45465</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>716</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>623</v>
+        <v>718</v>
       </c>
       <c r="J97" t="s">
-        <v>624</v>
+        <v>719</v>
       </c>
       <c r="K97" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="L97" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="O97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8652,50 +9336,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>45465</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>723</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>628</v>
+        <v>724</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="J98" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="K98" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
       <c r="L98" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="O98" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8719,50 +9407,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>45465</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>730</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>634</v>
+        <v>731</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>635</v>
+        <v>732</v>
       </c>
       <c r="J99" t="s">
-        <v>636</v>
+        <v>733</v>
       </c>
       <c r="K99" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="L99" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="O99" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8786,50 +9478,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>45465</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>738</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>641</v>
+        <v>739</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="J100" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="K100" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="L100" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="O100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -8853,50 +9549,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>45465</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>746</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="J101" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="K101" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="L101" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="O101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -8920,50 +9620,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>45465</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>754</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="J102" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="K102" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="L102" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="O102" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -8987,50 +9691,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>45465</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>761</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="J103" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="K103" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="L103" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="O103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9054,41 +9762,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>45465</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>768</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>667</v>
+        <v>769</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="J104" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="K104" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="L104" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
@@ -9107,41 +9819,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>45465</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>768</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="J105" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="K105" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
       <c r="L105" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
@@ -9160,7 +9876,7 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
